--- a/Test Procedure/Symptom Checker/PollenAllergy.xlsx
+++ b/Test Procedure/Symptom Checker/PollenAllergy.xlsx
@@ -14,30 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="4">
+  <si>
+    <t>Pollen Allergy</t>
+  </si>
   <si>
     <t>Conjunctivitis</t>
-  </si>
-  <si>
-    <t>Anemia</t>
   </si>
   <si>
     <t>Bronchitis</t>
   </si>
   <si>
-    <t>Migraines</t>
-  </si>
-  <si>
-    <t>Cold Sore</t>
-  </si>
-  <si>
-    <t>Kidney Stones</t>
-  </si>
-  <si>
-    <t>Pollen Allergy</t>
-  </si>
-  <si>
-    <t>Tuberculosis</t>
+    <t>Anemia</t>
   </si>
 </sst>
 </file>
@@ -404,7 +392,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -412,7 +400,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,7 +440,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -485,7 +473,7 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -496,7 +484,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -551,7 +539,7 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -573,7 +561,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -584,7 +572,7 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -639,7 +627,7 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -650,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -661,7 +649,7 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -716,7 +704,7 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -727,7 +715,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -738,7 +726,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -749,7 +737,7 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -771,7 +759,7 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -782,7 +770,7 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -793,7 +781,7 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -804,7 +792,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -826,7 +814,7 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -837,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -881,7 +869,7 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -914,7 +902,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -947,7 +935,7 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -975,7 +963,7 @@
         <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -989,7 +977,7 @@
         <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1059,7 +1047,7 @@
         <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1073,7 +1061,7 @@
         <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1087,7 +1075,7 @@
         <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1157,7 +1145,7 @@
         <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1171,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="D71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1185,7 +1173,7 @@
         <v>37</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1199,7 +1187,7 @@
         <v>43</v>
       </c>
       <c r="D73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1227,7 +1215,7 @@
         <v>46</v>
       </c>
       <c r="D75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1241,7 +1229,7 @@
         <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1255,7 +1243,7 @@
         <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1269,7 +1257,7 @@
         <v>43</v>
       </c>
       <c r="D78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1297,7 +1285,7 @@
         <v>46</v>
       </c>
       <c r="D80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1311,7 +1299,7 @@
         <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1367,7 +1355,7 @@
         <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1409,7 +1397,7 @@
         <v>51</v>
       </c>
       <c r="D88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1451,7 +1439,7 @@
         <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1563,7 +1551,7 @@
         <v>35</v>
       </c>
       <c r="D99" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1577,7 +1565,7 @@
         <v>37</v>
       </c>
       <c r="D100" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1591,7 +1579,7 @@
         <v>43</v>
       </c>
       <c r="D101" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1619,7 +1607,7 @@
         <v>46</v>
       </c>
       <c r="D103" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1633,7 +1621,7 @@
         <v>51</v>
       </c>
       <c r="D104" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1647,7 +1635,7 @@
         <v>37</v>
       </c>
       <c r="D105" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1661,7 +1649,7 @@
         <v>43</v>
       </c>
       <c r="D106" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1689,7 +1677,7 @@
         <v>46</v>
       </c>
       <c r="D108" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1703,7 +1691,7 @@
         <v>51</v>
       </c>
       <c r="D109" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1759,7 +1747,7 @@
         <v>51</v>
       </c>
       <c r="D113" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1801,7 +1789,7 @@
         <v>51</v>
       </c>
       <c r="D116" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1843,7 +1831,7 @@
         <v>51</v>
       </c>
       <c r="D119" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -1857,7 +1845,7 @@
         <v>35</v>
       </c>
       <c r="D120" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -1871,7 +1859,7 @@
         <v>37</v>
       </c>
       <c r="D121" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -1885,7 +1873,7 @@
         <v>43</v>
       </c>
       <c r="D122" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -1913,7 +1901,7 @@
         <v>46</v>
       </c>
       <c r="D124" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -1927,7 +1915,7 @@
         <v>51</v>
       </c>
       <c r="D125" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -1941,7 +1929,7 @@
         <v>37</v>
       </c>
       <c r="D126" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -1955,7 +1943,7 @@
         <v>43</v>
       </c>
       <c r="D127" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -1983,7 +1971,7 @@
         <v>46</v>
       </c>
       <c r="D129" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -1997,7 +1985,7 @@
         <v>51</v>
       </c>
       <c r="D130" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2053,7 +2041,7 @@
         <v>51</v>
       </c>
       <c r="D134" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2095,7 +2083,7 @@
         <v>51</v>
       </c>
       <c r="D137" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2137,7 +2125,7 @@
         <v>51</v>
       </c>
       <c r="D140" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2151,7 +2139,7 @@
         <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2165,7 +2153,7 @@
         <v>43</v>
       </c>
       <c r="D142" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2179,7 +2167,7 @@
         <v>44</v>
       </c>
       <c r="D143" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2193,7 +2181,7 @@
         <v>46</v>
       </c>
       <c r="D144" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2207,7 +2195,7 @@
         <v>51</v>
       </c>
       <c r="D145" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2221,7 +2209,7 @@
         <v>43</v>
       </c>
       <c r="D146" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2249,7 +2237,7 @@
         <v>46</v>
       </c>
       <c r="D148" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2263,7 +2251,7 @@
         <v>51</v>
       </c>
       <c r="D149" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2291,7 +2279,7 @@
         <v>46</v>
       </c>
       <c r="D151" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2305,7 +2293,7 @@
         <v>51</v>
       </c>
       <c r="D152" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2333,7 +2321,7 @@
         <v>51</v>
       </c>
       <c r="D154" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2347,7 +2335,7 @@
         <v>51</v>
       </c>
       <c r="D155" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2361,7 +2349,7 @@
         <v>43</v>
       </c>
       <c r="D156" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2389,7 +2377,7 @@
         <v>46</v>
       </c>
       <c r="D158" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2403,7 +2391,7 @@
         <v>51</v>
       </c>
       <c r="D159" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2431,7 +2419,7 @@
         <v>46</v>
       </c>
       <c r="D161" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -2445,7 +2433,7 @@
         <v>51</v>
       </c>
       <c r="D162" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -2473,7 +2461,7 @@
         <v>51</v>
       </c>
       <c r="D164" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -2487,7 +2475,7 @@
         <v>51</v>
       </c>
       <c r="D165" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -2529,7 +2517,7 @@
         <v>51</v>
       </c>
       <c r="D168" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -2571,7 +2559,7 @@
         <v>51</v>
       </c>
       <c r="D171" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -2613,7 +2601,7 @@
         <v>51</v>
       </c>
       <c r="D174" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -2763,7 +2751,7 @@
         <v>35</v>
       </c>
       <c r="E183" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -2780,7 +2768,7 @@
         <v>37</v>
       </c>
       <c r="E184" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -2797,7 +2785,7 @@
         <v>43</v>
       </c>
       <c r="E185" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -2831,7 +2819,7 @@
         <v>46</v>
       </c>
       <c r="E187" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -2848,7 +2836,7 @@
         <v>51</v>
       </c>
       <c r="E188" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -2865,7 +2853,7 @@
         <v>37</v>
       </c>
       <c r="E189" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -2882,7 +2870,7 @@
         <v>43</v>
       </c>
       <c r="E190" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -2916,7 +2904,7 @@
         <v>46</v>
       </c>
       <c r="E192" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -2933,7 +2921,7 @@
         <v>51</v>
       </c>
       <c r="E193" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3001,7 +2989,7 @@
         <v>51</v>
       </c>
       <c r="E197" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3052,7 +3040,7 @@
         <v>51</v>
       </c>
       <c r="E200" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3103,7 +3091,7 @@
         <v>51</v>
       </c>
       <c r="E203" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3120,7 +3108,7 @@
         <v>35</v>
       </c>
       <c r="E204" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3137,7 +3125,7 @@
         <v>37</v>
       </c>
       <c r="E205" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3154,7 +3142,7 @@
         <v>43</v>
       </c>
       <c r="E206" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3188,7 +3176,7 @@
         <v>46</v>
       </c>
       <c r="E208" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3205,7 +3193,7 @@
         <v>51</v>
       </c>
       <c r="E209" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3222,7 +3210,7 @@
         <v>37</v>
       </c>
       <c r="E210" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3239,7 +3227,7 @@
         <v>43</v>
       </c>
       <c r="E211" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3273,7 +3261,7 @@
         <v>46</v>
       </c>
       <c r="E213" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3290,7 +3278,7 @@
         <v>51</v>
       </c>
       <c r="E214" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -3358,7 +3346,7 @@
         <v>51</v>
       </c>
       <c r="E218" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -3409,7 +3397,7 @@
         <v>51</v>
       </c>
       <c r="E221" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -3460,7 +3448,7 @@
         <v>51</v>
       </c>
       <c r="E224" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -3477,7 +3465,7 @@
         <v>37</v>
       </c>
       <c r="E225" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -3494,7 +3482,7 @@
         <v>43</v>
       </c>
       <c r="E226" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -3511,7 +3499,7 @@
         <v>44</v>
       </c>
       <c r="E227" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -3528,7 +3516,7 @@
         <v>46</v>
       </c>
       <c r="E228" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -3545,7 +3533,7 @@
         <v>51</v>
       </c>
       <c r="E229" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -3562,7 +3550,7 @@
         <v>43</v>
       </c>
       <c r="E230" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -3596,7 +3584,7 @@
         <v>46</v>
       </c>
       <c r="E232" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -3613,7 +3601,7 @@
         <v>51</v>
       </c>
       <c r="E233" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -3647,7 +3635,7 @@
         <v>46</v>
       </c>
       <c r="E235" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -3664,7 +3652,7 @@
         <v>51</v>
       </c>
       <c r="E236" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -3698,7 +3686,7 @@
         <v>51</v>
       </c>
       <c r="E238" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -3715,7 +3703,7 @@
         <v>51</v>
       </c>
       <c r="E239" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -3732,7 +3720,7 @@
         <v>43</v>
       </c>
       <c r="E240" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -3766,7 +3754,7 @@
         <v>46</v>
       </c>
       <c r="E242" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -3783,7 +3771,7 @@
         <v>51</v>
       </c>
       <c r="E243" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -3817,7 +3805,7 @@
         <v>46</v>
       </c>
       <c r="E245" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -3834,7 +3822,7 @@
         <v>51</v>
       </c>
       <c r="E246" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -3868,7 +3856,7 @@
         <v>51</v>
       </c>
       <c r="E248" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -3885,7 +3873,7 @@
         <v>51</v>
       </c>
       <c r="E249" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -3936,7 +3924,7 @@
         <v>51</v>
       </c>
       <c r="E252" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -3987,7 +3975,7 @@
         <v>51</v>
       </c>
       <c r="E255" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4038,7 +4026,7 @@
         <v>51</v>
       </c>
       <c r="E258" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4072,7 +4060,7 @@
         <v>35</v>
       </c>
       <c r="E260" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4157,7 +4145,7 @@
         <v>51</v>
       </c>
       <c r="E265" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4242,7 +4230,7 @@
         <v>51</v>
       </c>
       <c r="E270" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4429,7 +4417,7 @@
         <v>37</v>
       </c>
       <c r="E281" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -4446,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="E282" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -4463,7 +4451,7 @@
         <v>44</v>
       </c>
       <c r="E283" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -4480,7 +4468,7 @@
         <v>46</v>
       </c>
       <c r="E284" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -4497,7 +4485,7 @@
         <v>51</v>
       </c>
       <c r="E285" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -4514,7 +4502,7 @@
         <v>43</v>
       </c>
       <c r="E286" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -4548,7 +4536,7 @@
         <v>46</v>
       </c>
       <c r="E288" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -4565,7 +4553,7 @@
         <v>51</v>
       </c>
       <c r="E289" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -4599,7 +4587,7 @@
         <v>46</v>
       </c>
       <c r="E291" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -4616,7 +4604,7 @@
         <v>51</v>
       </c>
       <c r="E292" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -4650,7 +4638,7 @@
         <v>51</v>
       </c>
       <c r="E294" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -4667,7 +4655,7 @@
         <v>51</v>
       </c>
       <c r="E295" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -4684,7 +4672,7 @@
         <v>43</v>
       </c>
       <c r="E296" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -4718,7 +4706,7 @@
         <v>46</v>
       </c>
       <c r="E298" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -4735,7 +4723,7 @@
         <v>51</v>
       </c>
       <c r="E299" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -4769,7 +4757,7 @@
         <v>46</v>
       </c>
       <c r="E301" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -4786,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="E302" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -4820,7 +4808,7 @@
         <v>51</v>
       </c>
       <c r="E304" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -4837,7 +4825,7 @@
         <v>51</v>
       </c>
       <c r="E305" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -4888,7 +4876,7 @@
         <v>51</v>
       </c>
       <c r="E308" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -4939,7 +4927,7 @@
         <v>51</v>
       </c>
       <c r="E311" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -4990,7 +4978,7 @@
         <v>51</v>
       </c>
       <c r="E314" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5024,7 +5012,7 @@
         <v>37</v>
       </c>
       <c r="E316" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5041,7 +5029,7 @@
         <v>43</v>
       </c>
       <c r="E317" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5058,7 +5046,7 @@
         <v>44</v>
       </c>
       <c r="E318" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5075,7 +5063,7 @@
         <v>46</v>
       </c>
       <c r="E319" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5092,7 +5080,7 @@
         <v>51</v>
       </c>
       <c r="E320" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5109,7 +5097,7 @@
         <v>43</v>
       </c>
       <c r="E321" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5143,7 +5131,7 @@
         <v>46</v>
       </c>
       <c r="E323" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5160,7 +5148,7 @@
         <v>51</v>
       </c>
       <c r="E324" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5194,7 +5182,7 @@
         <v>46</v>
       </c>
       <c r="E326" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5211,7 +5199,7 @@
         <v>51</v>
       </c>
       <c r="E327" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5245,7 +5233,7 @@
         <v>51</v>
       </c>
       <c r="E329" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5262,7 +5250,7 @@
         <v>51</v>
       </c>
       <c r="E330" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5279,7 +5267,7 @@
         <v>43</v>
       </c>
       <c r="E331" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5313,7 +5301,7 @@
         <v>46</v>
       </c>
       <c r="E333" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -5330,7 +5318,7 @@
         <v>51</v>
       </c>
       <c r="E334" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -5364,7 +5352,7 @@
         <v>46</v>
       </c>
       <c r="E336" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -5381,7 +5369,7 @@
         <v>51</v>
       </c>
       <c r="E337" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -5415,7 +5403,7 @@
         <v>51</v>
       </c>
       <c r="E339" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -5432,7 +5420,7 @@
         <v>51</v>
       </c>
       <c r="E340" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -5483,7 +5471,7 @@
         <v>51</v>
       </c>
       <c r="E343" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -5534,7 +5522,7 @@
         <v>51</v>
       </c>
       <c r="E346" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -5585,7 +5573,7 @@
         <v>51</v>
       </c>
       <c r="E349" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -5619,7 +5607,7 @@
         <v>43</v>
       </c>
       <c r="E351" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -5636,7 +5624,7 @@
         <v>44</v>
       </c>
       <c r="E352" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -5653,7 +5641,7 @@
         <v>46</v>
       </c>
       <c r="E353" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -5670,7 +5658,7 @@
         <v>51</v>
       </c>
       <c r="E354" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -5687,7 +5675,7 @@
         <v>44</v>
       </c>
       <c r="E355" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -5704,7 +5692,7 @@
         <v>46</v>
       </c>
       <c r="E356" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -5721,7 +5709,7 @@
         <v>51</v>
       </c>
       <c r="E357" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -5738,7 +5726,7 @@
         <v>46</v>
       </c>
       <c r="E358" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -5755,7 +5743,7 @@
         <v>51</v>
       </c>
       <c r="E359" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -5772,7 +5760,7 @@
         <v>51</v>
       </c>
       <c r="E360" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -5806,7 +5794,7 @@
         <v>46</v>
       </c>
       <c r="E362" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -5823,7 +5811,7 @@
         <v>51</v>
       </c>
       <c r="E363" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -5857,7 +5845,7 @@
         <v>51</v>
       </c>
       <c r="E365" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -5874,7 +5862,7 @@
         <v>51</v>
       </c>
       <c r="E366" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -5908,7 +5896,7 @@
         <v>51</v>
       </c>
       <c r="E368" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -5925,7 +5913,7 @@
         <v>51</v>
       </c>
       <c r="E369" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -5942,7 +5930,7 @@
         <v>51</v>
       </c>
       <c r="E370" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -5976,7 +5964,7 @@
         <v>46</v>
       </c>
       <c r="E372" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -5993,7 +5981,7 @@
         <v>51</v>
       </c>
       <c r="E373" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6027,7 +6015,7 @@
         <v>51</v>
       </c>
       <c r="E375" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6044,7 +6032,7 @@
         <v>51</v>
       </c>
       <c r="E376" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6078,7 +6066,7 @@
         <v>51</v>
       </c>
       <c r="E378" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6095,7 +6083,7 @@
         <v>51</v>
       </c>
       <c r="E379" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6112,7 +6100,7 @@
         <v>51</v>
       </c>
       <c r="E380" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6163,7 +6151,7 @@
         <v>51</v>
       </c>
       <c r="E383" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6217,7 +6205,7 @@
         <v>35</v>
       </c>
       <c r="F386" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -6317,7 +6305,7 @@
         <v>51</v>
       </c>
       <c r="F391" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -6417,7 +6405,7 @@
         <v>51</v>
       </c>
       <c r="F396" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -6637,7 +6625,7 @@
         <v>37</v>
       </c>
       <c r="F407" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -6657,7 +6645,7 @@
         <v>43</v>
       </c>
       <c r="F408" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -6677,7 +6665,7 @@
         <v>44</v>
       </c>
       <c r="F409" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -6697,7 +6685,7 @@
         <v>46</v>
       </c>
       <c r="F410" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -6717,7 +6705,7 @@
         <v>51</v>
       </c>
       <c r="F411" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -6737,7 +6725,7 @@
         <v>43</v>
       </c>
       <c r="F412" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -6777,7 +6765,7 @@
         <v>46</v>
       </c>
       <c r="F414" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -6797,7 +6785,7 @@
         <v>51</v>
       </c>
       <c r="F415" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -6837,7 +6825,7 @@
         <v>46</v>
       </c>
       <c r="F417" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -6857,7 +6845,7 @@
         <v>51</v>
       </c>
       <c r="F418" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -6897,7 +6885,7 @@
         <v>51</v>
       </c>
       <c r="F420" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -6917,7 +6905,7 @@
         <v>51</v>
       </c>
       <c r="F421" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -6937,7 +6925,7 @@
         <v>43</v>
       </c>
       <c r="F422" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -6977,7 +6965,7 @@
         <v>46</v>
       </c>
       <c r="F424" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -6997,7 +6985,7 @@
         <v>51</v>
       </c>
       <c r="F425" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -7037,7 +7025,7 @@
         <v>46</v>
       </c>
       <c r="F427" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -7057,7 +7045,7 @@
         <v>51</v>
       </c>
       <c r="F428" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -7097,7 +7085,7 @@
         <v>51</v>
       </c>
       <c r="F430" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -7117,7 +7105,7 @@
         <v>51</v>
       </c>
       <c r="F431" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -7177,7 +7165,7 @@
         <v>51</v>
       </c>
       <c r="F434" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -7237,7 +7225,7 @@
         <v>51</v>
       </c>
       <c r="F437" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -7297,7 +7285,7 @@
         <v>51</v>
       </c>
       <c r="F440" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -7337,7 +7325,7 @@
         <v>37</v>
       </c>
       <c r="F442" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -7357,7 +7345,7 @@
         <v>43</v>
       </c>
       <c r="F443" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -7377,7 +7365,7 @@
         <v>44</v>
       </c>
       <c r="F444" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -7397,7 +7385,7 @@
         <v>46</v>
       </c>
       <c r="F445" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -7417,7 +7405,7 @@
         <v>51</v>
       </c>
       <c r="F446" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -7437,7 +7425,7 @@
         <v>43</v>
       </c>
       <c r="F447" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -7477,7 +7465,7 @@
         <v>46</v>
       </c>
       <c r="F449" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -7497,7 +7485,7 @@
         <v>51</v>
       </c>
       <c r="F450" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -7537,7 +7525,7 @@
         <v>46</v>
       </c>
       <c r="F452" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -7557,7 +7545,7 @@
         <v>51</v>
       </c>
       <c r="F453" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -7597,7 +7585,7 @@
         <v>51</v>
       </c>
       <c r="F455" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -7617,7 +7605,7 @@
         <v>51</v>
       </c>
       <c r="F456" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -7637,7 +7625,7 @@
         <v>43</v>
       </c>
       <c r="F457" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -7677,7 +7665,7 @@
         <v>46</v>
       </c>
       <c r="F459" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -7697,7 +7685,7 @@
         <v>51</v>
       </c>
       <c r="F460" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -7737,7 +7725,7 @@
         <v>46</v>
       </c>
       <c r="F462" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -7757,7 +7745,7 @@
         <v>51</v>
       </c>
       <c r="F463" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -7797,7 +7785,7 @@
         <v>51</v>
       </c>
       <c r="F465" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -7817,7 +7805,7 @@
         <v>51</v>
       </c>
       <c r="F466" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -7877,7 +7865,7 @@
         <v>51</v>
       </c>
       <c r="F469" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -7937,7 +7925,7 @@
         <v>51</v>
       </c>
       <c r="F472" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -7997,7 +7985,7 @@
         <v>51</v>
       </c>
       <c r="F475" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -8037,7 +8025,7 @@
         <v>43</v>
       </c>
       <c r="F477" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -8057,7 +8045,7 @@
         <v>44</v>
       </c>
       <c r="F478" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -8077,7 +8065,7 @@
         <v>46</v>
       </c>
       <c r="F479" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -8097,7 +8085,7 @@
         <v>51</v>
       </c>
       <c r="F480" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -8117,7 +8105,7 @@
         <v>44</v>
       </c>
       <c r="F481" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -8137,7 +8125,7 @@
         <v>46</v>
       </c>
       <c r="F482" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -8157,7 +8145,7 @@
         <v>51</v>
       </c>
       <c r="F483" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -8177,7 +8165,7 @@
         <v>46</v>
       </c>
       <c r="F484" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -8197,7 +8185,7 @@
         <v>51</v>
       </c>
       <c r="F485" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -8217,7 +8205,7 @@
         <v>51</v>
       </c>
       <c r="F486" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -8257,7 +8245,7 @@
         <v>46</v>
       </c>
       <c r="F488" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -8277,7 +8265,7 @@
         <v>51</v>
       </c>
       <c r="F489" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -8317,7 +8305,7 @@
         <v>51</v>
       </c>
       <c r="F491" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -8337,7 +8325,7 @@
         <v>51</v>
       </c>
       <c r="F492" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -8377,7 +8365,7 @@
         <v>51</v>
       </c>
       <c r="F494" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -8397,7 +8385,7 @@
         <v>51</v>
       </c>
       <c r="F495" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -8417,7 +8405,7 @@
         <v>51</v>
       </c>
       <c r="F496" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -8457,7 +8445,7 @@
         <v>46</v>
       </c>
       <c r="F498" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -8477,7 +8465,7 @@
         <v>51</v>
       </c>
       <c r="F499" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:6">
@@ -8517,7 +8505,7 @@
         <v>51</v>
       </c>
       <c r="F501" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:6">
@@ -8537,7 +8525,7 @@
         <v>51</v>
       </c>
       <c r="F502" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -8577,7 +8565,7 @@
         <v>51</v>
       </c>
       <c r="F504" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -8597,7 +8585,7 @@
         <v>51</v>
       </c>
       <c r="F505" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -8617,7 +8605,7 @@
         <v>51</v>
       </c>
       <c r="F506" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:6">
@@ -8677,7 +8665,7 @@
         <v>51</v>
       </c>
       <c r="F509" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:6">
@@ -8737,7 +8725,7 @@
         <v>37</v>
       </c>
       <c r="F512" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -8757,7 +8745,7 @@
         <v>43</v>
       </c>
       <c r="F513" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -8777,7 +8765,7 @@
         <v>44</v>
       </c>
       <c r="F514" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -8797,7 +8785,7 @@
         <v>46</v>
       </c>
       <c r="F515" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -8817,7 +8805,7 @@
         <v>51</v>
       </c>
       <c r="F516" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -8897,7 +8885,7 @@
         <v>51</v>
       </c>
       <c r="F520" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -8957,7 +8945,7 @@
         <v>51</v>
       </c>
       <c r="F523" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -8997,7 +8985,7 @@
         <v>51</v>
       </c>
       <c r="F525" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -9017,7 +9005,7 @@
         <v>51</v>
       </c>
       <c r="F526" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -9097,7 +9085,7 @@
         <v>51</v>
       </c>
       <c r="F530" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:6">
@@ -9157,7 +9145,7 @@
         <v>51</v>
       </c>
       <c r="F533" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:6">
@@ -9197,7 +9185,7 @@
         <v>51</v>
       </c>
       <c r="F535" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -9217,7 +9205,7 @@
         <v>51</v>
       </c>
       <c r="F536" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -9437,7 +9425,7 @@
         <v>43</v>
       </c>
       <c r="F547" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -9457,7 +9445,7 @@
         <v>44</v>
       </c>
       <c r="F548" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -9477,7 +9465,7 @@
         <v>46</v>
       </c>
       <c r="F549" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -9497,7 +9485,7 @@
         <v>51</v>
       </c>
       <c r="F550" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -9517,7 +9505,7 @@
         <v>44</v>
       </c>
       <c r="F551" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -9537,7 +9525,7 @@
         <v>46</v>
       </c>
       <c r="F552" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -9557,7 +9545,7 @@
         <v>51</v>
       </c>
       <c r="F553" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -9577,7 +9565,7 @@
         <v>46</v>
       </c>
       <c r="F554" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -9597,7 +9585,7 @@
         <v>51</v>
       </c>
       <c r="F555" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -9617,7 +9605,7 @@
         <v>51</v>
       </c>
       <c r="F556" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -9657,7 +9645,7 @@
         <v>46</v>
       </c>
       <c r="F558" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -9677,7 +9665,7 @@
         <v>51</v>
       </c>
       <c r="F559" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -9717,7 +9705,7 @@
         <v>51</v>
       </c>
       <c r="F561" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -9737,7 +9725,7 @@
         <v>51</v>
       </c>
       <c r="F562" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -9777,7 +9765,7 @@
         <v>51</v>
       </c>
       <c r="F564" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -9797,7 +9785,7 @@
         <v>51</v>
       </c>
       <c r="F565" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -9817,7 +9805,7 @@
         <v>51</v>
       </c>
       <c r="F566" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:6">
@@ -9857,7 +9845,7 @@
         <v>46</v>
       </c>
       <c r="F568" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:6">
@@ -9877,7 +9865,7 @@
         <v>51</v>
       </c>
       <c r="F569" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -9917,7 +9905,7 @@
         <v>51</v>
       </c>
       <c r="F571" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:6">
@@ -9937,7 +9925,7 @@
         <v>51</v>
       </c>
       <c r="F572" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:6">
@@ -9977,7 +9965,7 @@
         <v>51</v>
       </c>
       <c r="F574" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -9997,7 +9985,7 @@
         <v>51</v>
       </c>
       <c r="F575" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -10017,7 +10005,7 @@
         <v>51</v>
       </c>
       <c r="F576" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -10077,7 +10065,7 @@
         <v>51</v>
       </c>
       <c r="F579" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -10137,7 +10125,7 @@
         <v>43</v>
       </c>
       <c r="F582" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -10157,7 +10145,7 @@
         <v>44</v>
       </c>
       <c r="F583" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -10177,7 +10165,7 @@
         <v>46</v>
       </c>
       <c r="F584" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -10197,7 +10185,7 @@
         <v>51</v>
       </c>
       <c r="F585" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -10217,7 +10205,7 @@
         <v>44</v>
       </c>
       <c r="F586" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -10237,7 +10225,7 @@
         <v>46</v>
       </c>
       <c r="F587" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -10257,7 +10245,7 @@
         <v>51</v>
       </c>
       <c r="F588" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -10277,7 +10265,7 @@
         <v>46</v>
       </c>
       <c r="F589" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -10297,7 +10285,7 @@
         <v>51</v>
       </c>
       <c r="F590" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -10317,7 +10305,7 @@
         <v>51</v>
       </c>
       <c r="F591" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -10357,7 +10345,7 @@
         <v>46</v>
       </c>
       <c r="F593" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:6">
@@ -10377,7 +10365,7 @@
         <v>51</v>
       </c>
       <c r="F594" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:6">
@@ -10417,7 +10405,7 @@
         <v>51</v>
       </c>
       <c r="F596" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:6">
@@ -10437,7 +10425,7 @@
         <v>51</v>
       </c>
       <c r="F597" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -10477,7 +10465,7 @@
         <v>51</v>
       </c>
       <c r="F599" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -10497,7 +10485,7 @@
         <v>51</v>
       </c>
       <c r="F600" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -10517,7 +10505,7 @@
         <v>51</v>
       </c>
       <c r="F601" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -10557,7 +10545,7 @@
         <v>46</v>
       </c>
       <c r="F603" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -10577,7 +10565,7 @@
         <v>51</v>
       </c>
       <c r="F604" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -10617,7 +10605,7 @@
         <v>51</v>
       </c>
       <c r="F606" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -10637,7 +10625,7 @@
         <v>51</v>
       </c>
       <c r="F607" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -10677,7 +10665,7 @@
         <v>51</v>
       </c>
       <c r="F609" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -10697,7 +10685,7 @@
         <v>51</v>
       </c>
       <c r="F610" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:6">
@@ -10717,7 +10705,7 @@
         <v>51</v>
       </c>
       <c r="F611" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -10777,7 +10765,7 @@
         <v>51</v>
       </c>
       <c r="F614" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -10837,7 +10825,7 @@
         <v>44</v>
       </c>
       <c r="F617" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -10857,7 +10845,7 @@
         <v>46</v>
       </c>
       <c r="F618" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -10877,7 +10865,7 @@
         <v>51</v>
       </c>
       <c r="F619" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -10897,7 +10885,7 @@
         <v>46</v>
       </c>
       <c r="F620" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:6">
@@ -10917,7 +10905,7 @@
         <v>51</v>
       </c>
       <c r="F621" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -10937,7 +10925,7 @@
         <v>51</v>
       </c>
       <c r="F622" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:6">
@@ -10957,7 +10945,7 @@
         <v>46</v>
       </c>
       <c r="F623" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:6">
@@ -10977,7 +10965,7 @@
         <v>51</v>
       </c>
       <c r="F624" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:7">
@@ -10997,7 +10985,7 @@
         <v>51</v>
       </c>
       <c r="F625" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:7">
@@ -11017,7 +11005,7 @@
         <v>51</v>
       </c>
       <c r="F626" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:7">
@@ -11057,7 +11045,7 @@
         <v>51</v>
       </c>
       <c r="F628" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:7">
@@ -11077,7 +11065,7 @@
         <v>51</v>
       </c>
       <c r="F629" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:7">
@@ -11097,7 +11085,7 @@
         <v>51</v>
       </c>
       <c r="F630" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:7">
@@ -11117,7 +11105,7 @@
         <v>51</v>
       </c>
       <c r="F631" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -11157,7 +11145,7 @@
         <v>51</v>
       </c>
       <c r="F633" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:7">
@@ -11177,7 +11165,7 @@
         <v>51</v>
       </c>
       <c r="F634" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:7">
@@ -11197,7 +11185,7 @@
         <v>51</v>
       </c>
       <c r="F635" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:7">
@@ -11217,7 +11205,7 @@
         <v>51</v>
       </c>
       <c r="F636" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:7">
@@ -11260,7 +11248,7 @@
         <v>37</v>
       </c>
       <c r="G638" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:7">
@@ -11283,7 +11271,7 @@
         <v>43</v>
       </c>
       <c r="G639" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:7">
@@ -11306,7 +11294,7 @@
         <v>44</v>
       </c>
       <c r="G640" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:7">
@@ -11329,7 +11317,7 @@
         <v>46</v>
       </c>
       <c r="G641" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:7">
@@ -11352,7 +11340,7 @@
         <v>51</v>
       </c>
       <c r="G642" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:7">
@@ -11444,7 +11432,7 @@
         <v>51</v>
       </c>
       <c r="G646" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:7">
@@ -11513,7 +11501,7 @@
         <v>51</v>
       </c>
       <c r="G649" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:7">
@@ -11559,7 +11547,7 @@
         <v>51</v>
       </c>
       <c r="G651" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -11582,7 +11570,7 @@
         <v>51</v>
       </c>
       <c r="G652" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:7">
@@ -11674,7 +11662,7 @@
         <v>51</v>
       </c>
       <c r="G656" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:7">
@@ -11743,7 +11731,7 @@
         <v>51</v>
       </c>
       <c r="G659" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:7">
@@ -11789,7 +11777,7 @@
         <v>51</v>
       </c>
       <c r="G661" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -11812,7 +11800,7 @@
         <v>51</v>
       </c>
       <c r="G662" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:7">
@@ -12065,7 +12053,7 @@
         <v>43</v>
       </c>
       <c r="G673" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:7">
@@ -12088,7 +12076,7 @@
         <v>44</v>
       </c>
       <c r="G674" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:7">
@@ -12111,7 +12099,7 @@
         <v>46</v>
       </c>
       <c r="G675" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:7">
@@ -12134,7 +12122,7 @@
         <v>51</v>
       </c>
       <c r="G676" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:7">
@@ -12157,7 +12145,7 @@
         <v>44</v>
       </c>
       <c r="G677" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:7">
@@ -12180,7 +12168,7 @@
         <v>46</v>
       </c>
       <c r="G678" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:7">
@@ -12203,7 +12191,7 @@
         <v>51</v>
       </c>
       <c r="G679" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -12226,7 +12214,7 @@
         <v>46</v>
       </c>
       <c r="G680" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:7">
@@ -12249,7 +12237,7 @@
         <v>51</v>
       </c>
       <c r="G681" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:7">
@@ -12272,7 +12260,7 @@
         <v>51</v>
       </c>
       <c r="G682" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:7">
@@ -12318,7 +12306,7 @@
         <v>46</v>
       </c>
       <c r="G684" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:7">
@@ -12341,7 +12329,7 @@
         <v>51</v>
       </c>
       <c r="G685" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:7">
@@ -12387,7 +12375,7 @@
         <v>51</v>
       </c>
       <c r="G687" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:7">
@@ -12410,7 +12398,7 @@
         <v>51</v>
       </c>
       <c r="G688" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:7">
@@ -12456,7 +12444,7 @@
         <v>51</v>
       </c>
       <c r="G690" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:7">
@@ -12479,7 +12467,7 @@
         <v>51</v>
       </c>
       <c r="G691" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:7">
@@ -12502,7 +12490,7 @@
         <v>51</v>
       </c>
       <c r="G692" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:7">
@@ -12548,7 +12536,7 @@
         <v>46</v>
       </c>
       <c r="G694" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:7">
@@ -12571,7 +12559,7 @@
         <v>51</v>
       </c>
       <c r="G695" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:7">
@@ -12617,7 +12605,7 @@
         <v>51</v>
       </c>
       <c r="G697" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:7">
@@ -12640,7 +12628,7 @@
         <v>51</v>
       </c>
       <c r="G698" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:7">
@@ -12686,7 +12674,7 @@
         <v>51</v>
       </c>
       <c r="G700" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:7">
@@ -12709,7 +12697,7 @@
         <v>51</v>
       </c>
       <c r="G701" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:7">
@@ -12732,7 +12720,7 @@
         <v>51</v>
       </c>
       <c r="G702" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:7">
@@ -12801,7 +12789,7 @@
         <v>51</v>
       </c>
       <c r="G705" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:7">
@@ -12870,7 +12858,7 @@
         <v>43</v>
       </c>
       <c r="G708" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:7">
@@ -12893,7 +12881,7 @@
         <v>44</v>
       </c>
       <c r="G709" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:7">
@@ -12916,7 +12904,7 @@
         <v>46</v>
       </c>
       <c r="G710" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:7">
@@ -12939,7 +12927,7 @@
         <v>51</v>
       </c>
       <c r="G711" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:7">
@@ -12962,7 +12950,7 @@
         <v>44</v>
       </c>
       <c r="G712" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:7">
@@ -12985,7 +12973,7 @@
         <v>46</v>
       </c>
       <c r="G713" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:7">
@@ -13008,7 +12996,7 @@
         <v>51</v>
       </c>
       <c r="G714" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:7">
@@ -13031,7 +13019,7 @@
         <v>46</v>
       </c>
       <c r="G715" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:7">
@@ -13054,7 +13042,7 @@
         <v>51</v>
       </c>
       <c r="G716" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:7">
@@ -13077,7 +13065,7 @@
         <v>51</v>
       </c>
       <c r="G717" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:7">
@@ -13123,7 +13111,7 @@
         <v>46</v>
       </c>
       <c r="G719" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:7">
@@ -13146,7 +13134,7 @@
         <v>51</v>
       </c>
       <c r="G720" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:7">
@@ -13192,7 +13180,7 @@
         <v>51</v>
       </c>
       <c r="G722" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:7">
@@ -13215,7 +13203,7 @@
         <v>51</v>
       </c>
       <c r="G723" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:7">
@@ -13261,7 +13249,7 @@
         <v>51</v>
       </c>
       <c r="G725" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:7">
@@ -13284,7 +13272,7 @@
         <v>51</v>
       </c>
       <c r="G726" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:7">
@@ -13307,7 +13295,7 @@
         <v>51</v>
       </c>
       <c r="G727" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:7">
@@ -13353,7 +13341,7 @@
         <v>46</v>
       </c>
       <c r="G729" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:7">
@@ -13376,7 +13364,7 @@
         <v>51</v>
       </c>
       <c r="G730" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:7">
@@ -13422,7 +13410,7 @@
         <v>51</v>
       </c>
       <c r="G732" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:7">
@@ -13445,7 +13433,7 @@
         <v>51</v>
       </c>
       <c r="G733" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:7">
@@ -13491,7 +13479,7 @@
         <v>51</v>
       </c>
       <c r="G735" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:7">
@@ -13514,7 +13502,7 @@
         <v>51</v>
       </c>
       <c r="G736" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:7">
@@ -13537,7 +13525,7 @@
         <v>51</v>
       </c>
       <c r="G737" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:7">
@@ -13606,7 +13594,7 @@
         <v>51</v>
       </c>
       <c r="G740" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:7">
@@ -13675,7 +13663,7 @@
         <v>44</v>
       </c>
       <c r="G743" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:7">
@@ -13698,7 +13686,7 @@
         <v>46</v>
       </c>
       <c r="G744" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:7">
@@ -13721,7 +13709,7 @@
         <v>51</v>
       </c>
       <c r="G745" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:7">
@@ -13744,7 +13732,7 @@
         <v>46</v>
       </c>
       <c r="G746" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:7">
@@ -13767,7 +13755,7 @@
         <v>51</v>
       </c>
       <c r="G747" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:7">
@@ -13790,7 +13778,7 @@
         <v>51</v>
       </c>
       <c r="G748" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:7">
@@ -13813,7 +13801,7 @@
         <v>46</v>
       </c>
       <c r="G749" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:7">
@@ -13836,7 +13824,7 @@
         <v>51</v>
       </c>
       <c r="G750" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:7">
@@ -13859,7 +13847,7 @@
         <v>51</v>
       </c>
       <c r="G751" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:7">
@@ -13882,7 +13870,7 @@
         <v>51</v>
       </c>
       <c r="G752" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:7">
@@ -13928,7 +13916,7 @@
         <v>51</v>
       </c>
       <c r="G754" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:7">
@@ -13951,7 +13939,7 @@
         <v>51</v>
       </c>
       <c r="G755" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:7">
@@ -13974,7 +13962,7 @@
         <v>51</v>
       </c>
       <c r="G756" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:7">
@@ -13997,7 +13985,7 @@
         <v>51</v>
       </c>
       <c r="G757" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:7">
@@ -14043,7 +14031,7 @@
         <v>51</v>
       </c>
       <c r="G759" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:7">
@@ -14066,7 +14054,7 @@
         <v>51</v>
       </c>
       <c r="G760" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:7">
@@ -14089,7 +14077,7 @@
         <v>51</v>
       </c>
       <c r="G761" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:7">
@@ -14112,7 +14100,7 @@
         <v>51</v>
       </c>
       <c r="G762" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:7">
@@ -14158,7 +14146,7 @@
         <v>43</v>
       </c>
       <c r="G764" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:7">
@@ -14181,7 +14169,7 @@
         <v>44</v>
       </c>
       <c r="G765" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:7">
@@ -14204,7 +14192,7 @@
         <v>46</v>
       </c>
       <c r="G766" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:7">
@@ -14227,7 +14215,7 @@
         <v>51</v>
       </c>
       <c r="G767" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:7">
@@ -14250,7 +14238,7 @@
         <v>44</v>
       </c>
       <c r="G768" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:7">
@@ -14273,7 +14261,7 @@
         <v>46</v>
       </c>
       <c r="G769" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:7">
@@ -14296,7 +14284,7 @@
         <v>51</v>
       </c>
       <c r="G770" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:7">
@@ -14342,7 +14330,7 @@
         <v>51</v>
       </c>
       <c r="G772" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:7">
@@ -14365,7 +14353,7 @@
         <v>51</v>
       </c>
       <c r="G773" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:7">
@@ -14434,7 +14422,7 @@
         <v>51</v>
       </c>
       <c r="G776" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:7">
@@ -14480,7 +14468,7 @@
         <v>51</v>
       </c>
       <c r="G778" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:7">
@@ -14503,7 +14491,7 @@
         <v>51</v>
       </c>
       <c r="G779" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:7">
@@ -14549,7 +14537,7 @@
         <v>51</v>
       </c>
       <c r="G781" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:7">
@@ -14572,7 +14560,7 @@
         <v>51</v>
       </c>
       <c r="G782" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:7">
@@ -14664,7 +14652,7 @@
         <v>51</v>
       </c>
       <c r="G786" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:7">
@@ -14710,7 +14698,7 @@
         <v>51</v>
       </c>
       <c r="G788" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:7">
@@ -14733,7 +14721,7 @@
         <v>51</v>
       </c>
       <c r="G789" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:7">
@@ -14779,7 +14767,7 @@
         <v>51</v>
       </c>
       <c r="G791" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:7">
@@ -14802,7 +14790,7 @@
         <v>51</v>
       </c>
       <c r="G792" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:7">
@@ -14963,7 +14951,7 @@
         <v>44</v>
       </c>
       <c r="G799" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:7">
@@ -14986,7 +14974,7 @@
         <v>46</v>
       </c>
       <c r="G800" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:7">
@@ -15009,7 +14997,7 @@
         <v>51</v>
       </c>
       <c r="G801" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:7">
@@ -15032,7 +15020,7 @@
         <v>46</v>
       </c>
       <c r="G802" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:7">
@@ -15055,7 +15043,7 @@
         <v>51</v>
       </c>
       <c r="G803" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:7">
@@ -15078,7 +15066,7 @@
         <v>51</v>
       </c>
       <c r="G804" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:7">
@@ -15101,7 +15089,7 @@
         <v>46</v>
       </c>
       <c r="G805" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:7">
@@ -15124,7 +15112,7 @@
         <v>51</v>
       </c>
       <c r="G806" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:7">
@@ -15147,7 +15135,7 @@
         <v>51</v>
       </c>
       <c r="G807" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:7">
@@ -15170,7 +15158,7 @@
         <v>51</v>
       </c>
       <c r="G808" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:7">
@@ -15216,7 +15204,7 @@
         <v>51</v>
       </c>
       <c r="G810" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:7">
@@ -15239,7 +15227,7 @@
         <v>51</v>
       </c>
       <c r="G811" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:7">
@@ -15262,7 +15250,7 @@
         <v>51</v>
       </c>
       <c r="G812" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:7">
@@ -15285,7 +15273,7 @@
         <v>51</v>
       </c>
       <c r="G813" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:7">
@@ -15331,7 +15319,7 @@
         <v>51</v>
       </c>
       <c r="G815" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:7">
@@ -15354,7 +15342,7 @@
         <v>51</v>
       </c>
       <c r="G816" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:7">
@@ -15377,7 +15365,7 @@
         <v>51</v>
       </c>
       <c r="G817" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:7">
@@ -15400,7 +15388,7 @@
         <v>51</v>
       </c>
       <c r="G818" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:7">
@@ -15446,7 +15434,7 @@
         <v>44</v>
       </c>
       <c r="G820" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:7">
@@ -15469,7 +15457,7 @@
         <v>46</v>
       </c>
       <c r="G821" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:7">
@@ -15492,7 +15480,7 @@
         <v>51</v>
       </c>
       <c r="G822" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:7">
@@ -15515,7 +15503,7 @@
         <v>46</v>
       </c>
       <c r="G823" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:7">
@@ -15538,7 +15526,7 @@
         <v>51</v>
       </c>
       <c r="G824" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:7">
@@ -15561,7 +15549,7 @@
         <v>51</v>
       </c>
       <c r="G825" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:7">
@@ -15584,7 +15572,7 @@
         <v>46</v>
       </c>
       <c r="G826" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:7">
@@ -15607,7 +15595,7 @@
         <v>51</v>
       </c>
       <c r="G827" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:7">
@@ -15630,7 +15618,7 @@
         <v>51</v>
       </c>
       <c r="G828" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:7">
@@ -15653,7 +15641,7 @@
         <v>51</v>
       </c>
       <c r="G829" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:7">
@@ -15699,7 +15687,7 @@
         <v>51</v>
       </c>
       <c r="G831" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:7">
@@ -15722,7 +15710,7 @@
         <v>51</v>
       </c>
       <c r="G832" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -15745,7 +15733,7 @@
         <v>51</v>
       </c>
       <c r="G833" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -15768,7 +15756,7 @@
         <v>51</v>
       </c>
       <c r="G834" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -15814,7 +15802,7 @@
         <v>51</v>
       </c>
       <c r="G836" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -15837,7 +15825,7 @@
         <v>51</v>
       </c>
       <c r="G837" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -15860,7 +15848,7 @@
         <v>51</v>
       </c>
       <c r="G838" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -15883,7 +15871,7 @@
         <v>51</v>
       </c>
       <c r="G839" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -15929,7 +15917,7 @@
         <v>46</v>
       </c>
       <c r="G841" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -15952,7 +15940,7 @@
         <v>51</v>
       </c>
       <c r="G842" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -15975,7 +15963,7 @@
         <v>51</v>
       </c>
       <c r="G843" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -15998,7 +15986,7 @@
         <v>51</v>
       </c>
       <c r="G844" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -16021,7 +16009,7 @@
         <v>51</v>
       </c>
       <c r="G845" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -16044,7 +16032,7 @@
         <v>51</v>
       </c>
       <c r="G846" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -16067,7 +16055,7 @@
         <v>51</v>
       </c>
       <c r="G847" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -16093,7 +16081,7 @@
         <v>43</v>
       </c>
       <c r="H848" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -16119,7 +16107,7 @@
         <v>44</v>
       </c>
       <c r="H849" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -16145,7 +16133,7 @@
         <v>46</v>
       </c>
       <c r="H850" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -16171,7 +16159,7 @@
         <v>51</v>
       </c>
       <c r="H851" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -16197,7 +16185,7 @@
         <v>44</v>
       </c>
       <c r="H852" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -16223,7 +16211,7 @@
         <v>46</v>
       </c>
       <c r="H853" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -16249,7 +16237,7 @@
         <v>51</v>
       </c>
       <c r="H854" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -16301,7 +16289,7 @@
         <v>51</v>
       </c>
       <c r="H856" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -16327,7 +16315,7 @@
         <v>51</v>
       </c>
       <c r="H857" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -16405,7 +16393,7 @@
         <v>51</v>
       </c>
       <c r="H860" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -16457,7 +16445,7 @@
         <v>51</v>
       </c>
       <c r="H862" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -16483,7 +16471,7 @@
         <v>51</v>
       </c>
       <c r="H863" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -16535,7 +16523,7 @@
         <v>51</v>
       </c>
       <c r="H865" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -16561,7 +16549,7 @@
         <v>51</v>
       </c>
       <c r="H866" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -16665,7 +16653,7 @@
         <v>51</v>
       </c>
       <c r="H870" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -16717,7 +16705,7 @@
         <v>51</v>
       </c>
       <c r="H872" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -16743,7 +16731,7 @@
         <v>51</v>
       </c>
       <c r="H873" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -16795,7 +16783,7 @@
         <v>51</v>
       </c>
       <c r="H875" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -16821,7 +16809,7 @@
         <v>51</v>
       </c>
       <c r="H876" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -17003,7 +16991,7 @@
         <v>44</v>
       </c>
       <c r="H883" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -17029,7 +17017,7 @@
         <v>46</v>
       </c>
       <c r="H884" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -17055,7 +17043,7 @@
         <v>51</v>
       </c>
       <c r="H885" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -17081,7 +17069,7 @@
         <v>46</v>
       </c>
       <c r="H886" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -17107,7 +17095,7 @@
         <v>51</v>
       </c>
       <c r="H887" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -17133,7 +17121,7 @@
         <v>51</v>
       </c>
       <c r="H888" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -17159,7 +17147,7 @@
         <v>46</v>
       </c>
       <c r="H889" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -17185,7 +17173,7 @@
         <v>51</v>
       </c>
       <c r="H890" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -17211,7 +17199,7 @@
         <v>51</v>
       </c>
       <c r="H891" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -17237,7 +17225,7 @@
         <v>51</v>
       </c>
       <c r="H892" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -17289,7 +17277,7 @@
         <v>51</v>
       </c>
       <c r="H894" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -17315,7 +17303,7 @@
         <v>51</v>
       </c>
       <c r="H895" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -17341,7 +17329,7 @@
         <v>51</v>
       </c>
       <c r="H896" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -17367,7 +17355,7 @@
         <v>51</v>
       </c>
       <c r="H897" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -17419,7 +17407,7 @@
         <v>51</v>
       </c>
       <c r="H899" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -17445,7 +17433,7 @@
         <v>51</v>
       </c>
       <c r="H900" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -17471,7 +17459,7 @@
         <v>51</v>
       </c>
       <c r="H901" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -17497,7 +17485,7 @@
         <v>51</v>
       </c>
       <c r="H902" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -17549,7 +17537,7 @@
         <v>44</v>
       </c>
       <c r="H904" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -17575,7 +17563,7 @@
         <v>46</v>
       </c>
       <c r="H905" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -17601,7 +17589,7 @@
         <v>51</v>
       </c>
       <c r="H906" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -17627,7 +17615,7 @@
         <v>46</v>
       </c>
       <c r="H907" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -17653,7 +17641,7 @@
         <v>51</v>
       </c>
       <c r="H908" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -17679,7 +17667,7 @@
         <v>51</v>
       </c>
       <c r="H909" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -17705,7 +17693,7 @@
         <v>46</v>
       </c>
       <c r="H910" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -17731,7 +17719,7 @@
         <v>51</v>
       </c>
       <c r="H911" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -17757,7 +17745,7 @@
         <v>51</v>
       </c>
       <c r="H912" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -17783,7 +17771,7 @@
         <v>51</v>
       </c>
       <c r="H913" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -17835,7 +17823,7 @@
         <v>51</v>
       </c>
       <c r="H915" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -17861,7 +17849,7 @@
         <v>51</v>
       </c>
       <c r="H916" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -17887,7 +17875,7 @@
         <v>51</v>
       </c>
       <c r="H917" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -17913,7 +17901,7 @@
         <v>51</v>
       </c>
       <c r="H918" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -17965,7 +17953,7 @@
         <v>51</v>
       </c>
       <c r="H920" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -17991,7 +17979,7 @@
         <v>51</v>
       </c>
       <c r="H921" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -18017,7 +18005,7 @@
         <v>51</v>
       </c>
       <c r="H922" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -18043,7 +18031,7 @@
         <v>51</v>
       </c>
       <c r="H923" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -18095,7 +18083,7 @@
         <v>46</v>
       </c>
       <c r="H925" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -18121,7 +18109,7 @@
         <v>51</v>
       </c>
       <c r="H926" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -18147,7 +18135,7 @@
         <v>51</v>
       </c>
       <c r="H927" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -18173,7 +18161,7 @@
         <v>51</v>
       </c>
       <c r="H928" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -18199,7 +18187,7 @@
         <v>51</v>
       </c>
       <c r="H929" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -18225,7 +18213,7 @@
         <v>51</v>
       </c>
       <c r="H930" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -18251,7 +18239,7 @@
         <v>51</v>
       </c>
       <c r="H931" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -18277,7 +18265,7 @@
         <v>44</v>
       </c>
       <c r="H932" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -18303,7 +18291,7 @@
         <v>46</v>
       </c>
       <c r="H933" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -18329,7 +18317,7 @@
         <v>51</v>
       </c>
       <c r="H934" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -18381,7 +18369,7 @@
         <v>51</v>
       </c>
       <c r="H936" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -18407,7 +18395,7 @@
         <v>51</v>
       </c>
       <c r="H937" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -18459,7 +18447,7 @@
         <v>51</v>
       </c>
       <c r="H939" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -18485,7 +18473,7 @@
         <v>51</v>
       </c>
       <c r="H940" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -18511,7 +18499,7 @@
         <v>51</v>
       </c>
       <c r="H941" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -18563,7 +18551,7 @@
         <v>51</v>
       </c>
       <c r="H943" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -18589,7 +18577,7 @@
         <v>51</v>
       </c>
       <c r="H944" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -18693,7 +18681,7 @@
         <v>51</v>
       </c>
       <c r="H948" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -18719,7 +18707,7 @@
         <v>51</v>
       </c>
       <c r="H949" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -18823,7 +18811,7 @@
         <v>46</v>
       </c>
       <c r="H953" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -18849,7 +18837,7 @@
         <v>51</v>
       </c>
       <c r="H954" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -18875,7 +18863,7 @@
         <v>51</v>
       </c>
       <c r="H955" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -18901,7 +18889,7 @@
         <v>51</v>
       </c>
       <c r="H956" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -18927,7 +18915,7 @@
         <v>51</v>
       </c>
       <c r="H957" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -18953,7 +18941,7 @@
         <v>51</v>
       </c>
       <c r="H958" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -18979,7 +18967,7 @@
         <v>51</v>
       </c>
       <c r="H959" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -19005,7 +18993,7 @@
         <v>46</v>
       </c>
       <c r="H960" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:9">
@@ -19031,7 +19019,7 @@
         <v>51</v>
       </c>
       <c r="H961" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:9">
@@ -19057,7 +19045,7 @@
         <v>51</v>
       </c>
       <c r="H962" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:9">
@@ -19083,7 +19071,7 @@
         <v>51</v>
       </c>
       <c r="H963" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:9">
@@ -19109,7 +19097,7 @@
         <v>51</v>
       </c>
       <c r="H964" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:9">
@@ -19135,7 +19123,7 @@
         <v>51</v>
       </c>
       <c r="H965" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:9">
@@ -19161,7 +19149,7 @@
         <v>51</v>
       </c>
       <c r="H966" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:9">
@@ -19187,7 +19175,7 @@
         <v>51</v>
       </c>
       <c r="H967" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:9">
@@ -19216,7 +19204,7 @@
         <v>44</v>
       </c>
       <c r="I968" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:9">
@@ -19245,7 +19233,7 @@
         <v>46</v>
       </c>
       <c r="I969" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:9">
@@ -19274,7 +19262,7 @@
         <v>51</v>
       </c>
       <c r="I970" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:9">
@@ -19332,7 +19320,7 @@
         <v>51</v>
       </c>
       <c r="I972" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:9">
@@ -19361,7 +19349,7 @@
         <v>51</v>
       </c>
       <c r="I973" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:9">
@@ -19419,7 +19407,7 @@
         <v>51</v>
       </c>
       <c r="I975" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:9">
@@ -19448,7 +19436,7 @@
         <v>51</v>
       </c>
       <c r="I976" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:9">
@@ -19477,7 +19465,7 @@
         <v>51</v>
       </c>
       <c r="I977" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:9">
@@ -19535,7 +19523,7 @@
         <v>51</v>
       </c>
       <c r="I979" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:9">
@@ -19564,7 +19552,7 @@
         <v>51</v>
       </c>
       <c r="I980" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:9">
@@ -19680,7 +19668,7 @@
         <v>51</v>
       </c>
       <c r="I984" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:9">
@@ -19709,7 +19697,7 @@
         <v>51</v>
       </c>
       <c r="I985" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:9">
@@ -19825,7 +19813,7 @@
         <v>46</v>
       </c>
       <c r="I989" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:9">
@@ -19854,7 +19842,7 @@
         <v>51</v>
       </c>
       <c r="I990" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:9">
@@ -19883,7 +19871,7 @@
         <v>51</v>
       </c>
       <c r="I991" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:9">
@@ -19912,7 +19900,7 @@
         <v>51</v>
       </c>
       <c r="I992" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:9">
@@ -19941,7 +19929,7 @@
         <v>51</v>
       </c>
       <c r="I993" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:9">
@@ -19970,7 +19958,7 @@
         <v>51</v>
       </c>
       <c r="I994" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:9">
@@ -19999,7 +19987,7 @@
         <v>51</v>
       </c>
       <c r="I995" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:9">
@@ -20028,7 +20016,7 @@
         <v>46</v>
       </c>
       <c r="I996" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:9">
@@ -20057,7 +20045,7 @@
         <v>51</v>
       </c>
       <c r="I997" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:9">
@@ -20086,7 +20074,7 @@
         <v>51</v>
       </c>
       <c r="I998" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:9">
@@ -20115,7 +20103,7 @@
         <v>51</v>
       </c>
       <c r="I999" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:9">
@@ -20144,7 +20132,7 @@
         <v>51</v>
       </c>
       <c r="I1000" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:9">
@@ -20173,7 +20161,7 @@
         <v>51</v>
       </c>
       <c r="I1001" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:9">
@@ -20202,7 +20190,7 @@
         <v>51</v>
       </c>
       <c r="I1002" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:9">
@@ -20231,7 +20219,7 @@
         <v>51</v>
       </c>
       <c r="I1003" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:9">
@@ -20289,7 +20277,7 @@
         <v>51</v>
       </c>
       <c r="I1005" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:9">
@@ -20318,7 +20306,7 @@
         <v>51</v>
       </c>
       <c r="I1006" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:9">
@@ -20347,7 +20335,7 @@
         <v>51</v>
       </c>
       <c r="I1007" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:9">
@@ -20376,7 +20364,7 @@
         <v>51</v>
       </c>
       <c r="I1008" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:11">
@@ -20463,7 +20451,7 @@
         <v>51</v>
       </c>
       <c r="I1011" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:11">
@@ -20492,7 +20480,7 @@
         <v>51</v>
       </c>
       <c r="I1012" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:11">
@@ -20556,7 +20544,7 @@
         <v>51</v>
       </c>
       <c r="J1014" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:11">
@@ -20588,7 +20576,7 @@
         <v>51</v>
       </c>
       <c r="J1015" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:11">
@@ -20620,7 +20608,7 @@
         <v>51</v>
       </c>
       <c r="J1016" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:11">
@@ -20652,7 +20640,7 @@
         <v>51</v>
       </c>
       <c r="J1017" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:11">
@@ -20684,7 +20672,7 @@
         <v>51</v>
       </c>
       <c r="J1018" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:11">
@@ -20748,7 +20736,7 @@
         <v>51</v>
       </c>
       <c r="J1020" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:11">
@@ -20780,7 +20768,7 @@
         <v>51</v>
       </c>
       <c r="J1021" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:11">
@@ -20812,7 +20800,7 @@
         <v>51</v>
       </c>
       <c r="J1022" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:11">
@@ -20847,7 +20835,7 @@
         <v>51</v>
       </c>
       <c r="K1023" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Test Procedure/Symptom Checker/PollenAllergy.xlsx
+++ b/Test Procedure/Symptom Checker/PollenAllergy.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mason/Documents/Senior-Design-2-Electric-Boogaloo/Test Procedure/Symptom Checker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Pollen Allergy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,8 +44,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,14 +74,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -115,12 +134,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -147,14 +166,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -181,6 +201,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -356,14 +377,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1023"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>24</v>
       </c>
@@ -371,39 +394,202 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3">
+        <f>COUNTIF(B:B, "Pollen Allergy")</f>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:N3" si="0">COUNTIF(C:C, "Pollen Allergy")</f>
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>SUM(E3:N3)</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4">
+        <f>COUNTIF(B:B, "*")</f>
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:Q4" si="1">COUNTIF(C:C, "*")</f>
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f>SUM(E4:N4)</f>
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" s="1">
+        <f>E3/E4</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:P5" si="2">F3/F4</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99706744868035191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>37</v>
       </c>
@@ -411,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>43</v>
       </c>
@@ -419,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>44</v>
       </c>
@@ -427,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>46</v>
       </c>
@@ -435,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>51</v>
       </c>
@@ -443,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>24</v>
       </c>
@@ -454,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>24</v>
       </c>
@@ -465,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>24</v>
       </c>
@@ -476,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>24</v>
       </c>
@@ -487,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>24</v>
       </c>
@@ -498,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>24</v>
       </c>
@@ -509,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>24</v>
       </c>
@@ -520,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>24</v>
       </c>
@@ -531,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>24</v>
       </c>
@@ -542,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>26</v>
       </c>
@@ -553,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>26</v>
       </c>
@@ -564,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>26</v>
       </c>
@@ -575,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>26</v>
       </c>
@@ -586,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>26</v>
       </c>
@@ -597,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>26</v>
       </c>
@@ -608,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -619,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -630,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30</v>
       </c>
@@ -641,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30</v>
       </c>
@@ -652,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -663,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -674,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -685,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -696,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
@@ -707,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -718,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
@@ -729,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>32</v>
       </c>
@@ -740,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>32</v>
       </c>
@@ -751,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>32</v>
       </c>
@@ -762,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>32</v>
       </c>
@@ -773,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>35</v>
       </c>
@@ -784,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>35</v>
       </c>
@@ -795,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>35</v>
       </c>
@@ -806,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>35</v>
       </c>
@@ -817,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>35</v>
       </c>
@@ -828,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>37</v>
       </c>
@@ -839,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>37</v>
       </c>
@@ -850,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>37</v>
       </c>
@@ -861,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>37</v>
       </c>
@@ -872,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>43</v>
       </c>
@@ -883,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>43</v>
       </c>
@@ -894,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>43</v>
       </c>
@@ -905,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>44</v>
       </c>
@@ -916,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>44</v>
       </c>
@@ -927,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>46</v>
       </c>
@@ -938,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>24</v>
       </c>
@@ -952,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>24</v>
       </c>
@@ -966,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>24</v>
       </c>
@@ -980,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>24</v>
       </c>
@@ -994,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>24</v>
       </c>
@@ -1008,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>24</v>
       </c>
@@ -1022,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>24</v>
       </c>
@@ -1036,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>24</v>
       </c>
@@ -1050,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>24</v>
       </c>
@@ -1064,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>24</v>
       </c>
@@ -1078,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>24</v>
       </c>
@@ -1092,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>24</v>
       </c>
@@ -1106,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>24</v>
       </c>
@@ -1120,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>24</v>
       </c>
@@ -1134,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>24</v>
       </c>
@@ -1148,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>24</v>
       </c>
@@ -1162,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>24</v>
       </c>
@@ -1176,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>24</v>
       </c>
@@ -1190,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>24</v>
       </c>
@@ -1204,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>24</v>
       </c>
@@ -1218,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>24</v>
       </c>
@@ -1232,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>24</v>
       </c>
@@ -1246,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>24</v>
       </c>
@@ -1260,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>24</v>
       </c>
@@ -1274,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>24</v>
       </c>
@@ -1288,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>24</v>
       </c>
@@ -1302,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>24</v>
       </c>
@@ -1316,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>24</v>
       </c>
@@ -1330,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>24</v>
       </c>
@@ -1344,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>24</v>
       </c>
@@ -1358,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>24</v>
       </c>
@@ -1372,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>24</v>
       </c>
@@ -1386,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>24</v>
       </c>
@@ -1400,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>24</v>
       </c>
@@ -1414,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>24</v>
       </c>
@@ -1428,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>24</v>
       </c>
@@ -1442,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>26</v>
       </c>
@@ -1456,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>26</v>
       </c>
@@ -1470,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>26</v>
       </c>
@@ -1484,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>26</v>
       </c>
@@ -1498,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>26</v>
       </c>
@@ -1512,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>26</v>
       </c>
@@ -1526,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>26</v>
       </c>
@@ -1540,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>26</v>
       </c>
@@ -1554,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>26</v>
       </c>
@@ -1568,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>26</v>
       </c>
@@ -1582,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>26</v>
       </c>
@@ -1596,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>26</v>
       </c>
@@ -1610,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>26</v>
       </c>
@@ -1624,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>26</v>
       </c>
@@ -1638,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>26</v>
       </c>
@@ -1652,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>26</v>
       </c>
@@ -1666,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>26</v>
       </c>
@@ -1680,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>26</v>
       </c>
@@ -1694,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>26</v>
       </c>
@@ -1708,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>26</v>
       </c>
@@ -1722,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>26</v>
       </c>
@@ -1736,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>26</v>
       </c>
@@ -1750,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>26</v>
       </c>
@@ -1764,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>26</v>
       </c>
@@ -1778,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>26</v>
       </c>
@@ -1792,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>26</v>
       </c>
@@ -1806,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>26</v>
       </c>
@@ -1820,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>26</v>
       </c>
@@ -1834,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>30</v>
       </c>
@@ -1848,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>30</v>
       </c>
@@ -1862,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>30</v>
       </c>
@@ -1876,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>30</v>
       </c>
@@ -1890,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>30</v>
       </c>
@@ -1904,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>30</v>
       </c>
@@ -1918,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>30</v>
       </c>
@@ -1932,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>30</v>
       </c>
@@ -1946,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>30</v>
       </c>
@@ -1960,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>30</v>
       </c>
@@ -1974,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>30</v>
       </c>
@@ -1988,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>30</v>
       </c>
@@ -2002,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>30</v>
       </c>
@@ -2016,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>30</v>
       </c>
@@ -2030,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>30</v>
       </c>
@@ -2044,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>30</v>
       </c>
@@ -2058,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>30</v>
       </c>
@@ -2072,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>30</v>
       </c>
@@ -2086,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>30</v>
       </c>
@@ -2100,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>30</v>
       </c>
@@ -2114,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>30</v>
       </c>
@@ -2128,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>32</v>
       </c>
@@ -2142,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>32</v>
       </c>
@@ -2156,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>32</v>
       </c>
@@ -2170,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>32</v>
       </c>
@@ -2184,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>32</v>
       </c>
@@ -2198,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>32</v>
       </c>
@@ -2212,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>32</v>
       </c>
@@ -2226,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>32</v>
       </c>
@@ -2240,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>32</v>
       </c>
@@ -2254,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>32</v>
       </c>
@@ -2268,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>32</v>
       </c>
@@ -2282,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>32</v>
       </c>
@@ -2296,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>32</v>
       </c>
@@ -2310,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>32</v>
       </c>
@@ -2324,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>32</v>
       </c>
@@ -2338,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>35</v>
       </c>
@@ -2352,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>35</v>
       </c>
@@ -2366,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>35</v>
       </c>
@@ -2380,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>35</v>
       </c>
@@ -2394,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>35</v>
       </c>
@@ -2408,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>35</v>
       </c>
@@ -2422,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>35</v>
       </c>
@@ -2436,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>35</v>
       </c>
@@ -2450,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>35</v>
       </c>
@@ -2464,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>35</v>
       </c>
@@ -2478,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>37</v>
       </c>
@@ -2492,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>37</v>
       </c>
@@ -2506,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>37</v>
       </c>
@@ -2520,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>37</v>
       </c>
@@ -2534,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>37</v>
       </c>
@@ -2548,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>37</v>
       </c>
@@ -2562,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>43</v>
       </c>
@@ -2576,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>43</v>
       </c>
@@ -2590,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>43</v>
       </c>
@@ -2604,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>44</v>
       </c>
@@ -2618,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>24</v>
       </c>
@@ -2635,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>24</v>
       </c>
@@ -2652,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>24</v>
       </c>
@@ -2669,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>24</v>
       </c>
@@ -2686,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>24</v>
       </c>
@@ -2703,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>24</v>
       </c>
@@ -2720,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>24</v>
       </c>
@@ -2737,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>24</v>
       </c>
@@ -2754,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>24</v>
       </c>
@@ -2771,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>24</v>
       </c>
@@ -2788,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>24</v>
       </c>
@@ -2805,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>24</v>
       </c>
@@ -2822,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>24</v>
       </c>
@@ -2839,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>24</v>
       </c>
@@ -2856,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>24</v>
       </c>
@@ -2873,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>24</v>
       </c>
@@ -2890,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>24</v>
       </c>
@@ -2907,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>24</v>
       </c>
@@ -2924,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>24</v>
       </c>
@@ -2941,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>24</v>
       </c>
@@ -2958,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>24</v>
       </c>
@@ -2975,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>24</v>
       </c>
@@ -2992,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>24</v>
       </c>
@@ -3009,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>24</v>
       </c>
@@ -3026,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>24</v>
       </c>
@@ -3043,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>24</v>
       </c>
@@ -3060,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>24</v>
       </c>
@@ -3077,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>24</v>
       </c>
@@ -3094,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>24</v>
       </c>
@@ -3111,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>24</v>
       </c>
@@ -3128,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>24</v>
       </c>
@@ -3145,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>24</v>
       </c>
@@ -3162,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>24</v>
       </c>
@@ -3179,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>24</v>
       </c>
@@ -3196,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>24</v>
       </c>
@@ -3213,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>24</v>
       </c>
@@ -3230,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>24</v>
       </c>
@@ -3247,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>24</v>
       </c>
@@ -3264,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>24</v>
       </c>
@@ -3281,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>24</v>
       </c>
@@ -3298,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>24</v>
       </c>
@@ -3315,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>24</v>
       </c>
@@ -3332,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>24</v>
       </c>
@@ -3349,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>24</v>
       </c>
@@ -3366,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>24</v>
       </c>
@@ -3383,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>24</v>
       </c>
@@ -3400,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>24</v>
       </c>
@@ -3417,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>24</v>
       </c>
@@ -3434,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>24</v>
       </c>
@@ -3451,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>24</v>
       </c>
@@ -3468,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>24</v>
       </c>
@@ -3485,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>24</v>
       </c>
@@ -3502,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>24</v>
       </c>
@@ -3519,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>24</v>
       </c>
@@ -3536,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>24</v>
       </c>
@@ -3553,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>24</v>
       </c>
@@ -3570,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>24</v>
       </c>
@@ -3587,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>24</v>
       </c>
@@ -3604,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>24</v>
       </c>
@@ -3621,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>24</v>
       </c>
@@ -3638,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>24</v>
       </c>
@@ -3655,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>24</v>
       </c>
@@ -3672,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>24</v>
       </c>
@@ -3689,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>24</v>
       </c>
@@ -3706,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>24</v>
       </c>
@@ -3723,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>24</v>
       </c>
@@ -3740,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>24</v>
       </c>
@@ -3757,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>24</v>
       </c>
@@ -3774,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>24</v>
       </c>
@@ -3791,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>24</v>
       </c>
@@ -3808,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>24</v>
       </c>
@@ -3825,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>24</v>
       </c>
@@ -3842,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>24</v>
       </c>
@@ -3859,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>24</v>
       </c>
@@ -3876,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>24</v>
       </c>
@@ -3893,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>24</v>
       </c>
@@ -3910,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>24</v>
       </c>
@@ -3927,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>24</v>
       </c>
@@ -3944,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>24</v>
       </c>
@@ -3961,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>24</v>
       </c>
@@ -3978,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>24</v>
       </c>
@@ -3995,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>24</v>
       </c>
@@ -4012,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>24</v>
       </c>
@@ -4029,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>24</v>
       </c>
@@ -4046,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>26</v>
       </c>
@@ -4063,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>26</v>
       </c>
@@ -4080,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>26</v>
       </c>
@@ -4097,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>26</v>
       </c>
@@ -4114,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>26</v>
       </c>
@@ -4131,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>26</v>
       </c>
@@ -4148,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>26</v>
       </c>
@@ -4165,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>26</v>
       </c>
@@ -4182,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>26</v>
       </c>
@@ -4199,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>26</v>
       </c>
@@ -4216,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>26</v>
       </c>
@@ -4233,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>26</v>
       </c>
@@ -4250,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>26</v>
       </c>
@@ -4267,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>26</v>
       </c>
@@ -4284,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>26</v>
       </c>
@@ -4301,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>26</v>
       </c>
@@ -4318,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>26</v>
       </c>
@@ -4335,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>26</v>
       </c>
@@ -4352,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>26</v>
       </c>
@@ -4369,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>26</v>
       </c>
@@ -4386,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>26</v>
       </c>
@@ -4403,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>26</v>
       </c>
@@ -4420,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>26</v>
       </c>
@@ -4437,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>26</v>
       </c>
@@ -4454,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>26</v>
       </c>
@@ -4471,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>26</v>
       </c>
@@ -4488,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>26</v>
       </c>
@@ -4505,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>26</v>
       </c>
@@ -4522,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>26</v>
       </c>
@@ -4539,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>26</v>
       </c>
@@ -4556,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>26</v>
       </c>
@@ -4573,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>26</v>
       </c>
@@ -4590,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>26</v>
       </c>
@@ -4607,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>26</v>
       </c>
@@ -4624,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>26</v>
       </c>
@@ -4641,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>26</v>
       </c>
@@ -4658,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>26</v>
       </c>
@@ -4675,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>26</v>
       </c>
@@ -4692,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>26</v>
       </c>
@@ -4709,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>26</v>
       </c>
@@ -4726,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>26</v>
       </c>
@@ -4743,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>26</v>
       </c>
@@ -4760,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>26</v>
       </c>
@@ -4777,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>26</v>
       </c>
@@ -4794,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>26</v>
       </c>
@@ -4811,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>26</v>
       </c>
@@ -4828,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>26</v>
       </c>
@@ -4845,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>26</v>
       </c>
@@ -4862,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>26</v>
       </c>
@@ -4879,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>26</v>
       </c>
@@ -4896,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>26</v>
       </c>
@@ -4913,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>26</v>
       </c>
@@ -4930,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>26</v>
       </c>
@@ -4947,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>26</v>
       </c>
@@ -4964,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>26</v>
       </c>
@@ -4981,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>26</v>
       </c>
@@ -4998,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>30</v>
       </c>
@@ -5015,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>30</v>
       </c>
@@ -5032,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>30</v>
       </c>
@@ -5049,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>30</v>
       </c>
@@ -5066,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>30</v>
       </c>
@@ -5083,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>30</v>
       </c>
@@ -5100,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>30</v>
       </c>
@@ -5117,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>30</v>
       </c>
@@ -5134,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>30</v>
       </c>
@@ -5151,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>30</v>
       </c>
@@ -5168,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>30</v>
       </c>
@@ -5185,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>30</v>
       </c>
@@ -5202,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>30</v>
       </c>
@@ -5219,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>30</v>
       </c>
@@ -5236,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>30</v>
       </c>
@@ -5253,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>30</v>
       </c>
@@ -5270,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>30</v>
       </c>
@@ -5287,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>30</v>
       </c>
@@ -5304,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>30</v>
       </c>
@@ -5321,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>30</v>
       </c>
@@ -5338,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>30</v>
       </c>
@@ -5355,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>30</v>
       </c>
@@ -5372,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>30</v>
       </c>
@@ -5389,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>30</v>
       </c>
@@ -5406,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>30</v>
       </c>
@@ -5423,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>30</v>
       </c>
@@ -5440,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>30</v>
       </c>
@@ -5457,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>30</v>
       </c>
@@ -5474,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>30</v>
       </c>
@@ -5491,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>30</v>
       </c>
@@ -5508,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>30</v>
       </c>
@@ -5525,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>30</v>
       </c>
@@ -5542,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>30</v>
       </c>
@@ -5559,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>30</v>
       </c>
@@ -5576,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>30</v>
       </c>
@@ -5593,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>32</v>
       </c>
@@ -5610,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>32</v>
       </c>
@@ -5627,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>32</v>
       </c>
@@ -5644,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>32</v>
       </c>
@@ -5661,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>32</v>
       </c>
@@ -5678,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>32</v>
       </c>
@@ -5695,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>32</v>
       </c>
@@ -5712,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>32</v>
       </c>
@@ -5729,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>32</v>
       </c>
@@ -5746,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>32</v>
       </c>
@@ -5763,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>32</v>
       </c>
@@ -5780,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>32</v>
       </c>
@@ -5797,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>32</v>
       </c>
@@ -5814,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>32</v>
       </c>
@@ -5831,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>32</v>
       </c>
@@ -5848,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>32</v>
       </c>
@@ -5865,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>32</v>
       </c>
@@ -5882,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>32</v>
       </c>
@@ -5899,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>32</v>
       </c>
@@ -5916,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>32</v>
       </c>
@@ -5933,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>35</v>
       </c>
@@ -5950,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>35</v>
       </c>
@@ -5967,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>35</v>
       </c>
@@ -5984,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>35</v>
       </c>
@@ -6001,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>35</v>
       </c>
@@ -6018,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>35</v>
       </c>
@@ -6035,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>35</v>
       </c>
@@ -6052,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>35</v>
       </c>
@@ -6069,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>35</v>
       </c>
@@ -6086,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>35</v>
       </c>
@@ -6103,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>37</v>
       </c>
@@ -6120,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>37</v>
       </c>
@@ -6137,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>37</v>
       </c>
@@ -6154,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>37</v>
       </c>
@@ -6171,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>43</v>
       </c>
@@ -6188,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>24</v>
       </c>
@@ -6208,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>24</v>
       </c>
@@ -6228,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>24</v>
       </c>
@@ -6248,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>24</v>
       </c>
@@ -6268,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>24</v>
       </c>
@@ -6288,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>24</v>
       </c>
@@ -6308,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>24</v>
       </c>
@@ -6328,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>24</v>
       </c>
@@ -6348,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>24</v>
       </c>
@@ -6368,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>24</v>
       </c>
@@ -6388,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>24</v>
       </c>
@@ -6408,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>24</v>
       </c>
@@ -6428,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>24</v>
       </c>
@@ -6448,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>24</v>
       </c>
@@ -6468,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>24</v>
       </c>
@@ -6488,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>24</v>
       </c>
@@ -6508,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>24</v>
       </c>
@@ -6528,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>24</v>
       </c>
@@ -6548,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>24</v>
       </c>
@@ -6568,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>24</v>
       </c>
@@ -6588,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>24</v>
       </c>
@@ -6608,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>24</v>
       </c>
@@ -6628,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>24</v>
       </c>
@@ -6648,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>24</v>
       </c>
@@ -6668,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>24</v>
       </c>
@@ -6688,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>24</v>
       </c>
@@ -6708,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>24</v>
       </c>
@@ -6728,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>24</v>
       </c>
@@ -6748,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>24</v>
       </c>
@@ -6768,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>24</v>
       </c>
@@ -6788,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>24</v>
       </c>
@@ -6808,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>24</v>
       </c>
@@ -6828,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>24</v>
       </c>
@@ -6848,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>24</v>
       </c>
@@ -6868,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>24</v>
       </c>
@@ -6888,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>24</v>
       </c>
@@ -6908,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>24</v>
       </c>
@@ -6928,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>24</v>
       </c>
@@ -6948,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>24</v>
       </c>
@@ -6968,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>24</v>
       </c>
@@ -6988,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>24</v>
       </c>
@@ -7008,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>24</v>
       </c>
@@ -7028,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>24</v>
       </c>
@@ -7048,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>24</v>
       </c>
@@ -7068,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>24</v>
       </c>
@@ -7088,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>24</v>
       </c>
@@ -7108,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>24</v>
       </c>
@@ -7128,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>24</v>
       </c>
@@ -7148,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>24</v>
       </c>
@@ -7168,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>24</v>
       </c>
@@ -7188,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>24</v>
       </c>
@@ -7208,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>24</v>
       </c>
@@ -7228,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>24</v>
       </c>
@@ -7248,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>24</v>
       </c>
@@ -7268,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>24</v>
       </c>
@@ -7288,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>24</v>
       </c>
@@ -7308,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>24</v>
       </c>
@@ -7328,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>24</v>
       </c>
@@ -7348,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>24</v>
       </c>
@@ -7368,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>24</v>
       </c>
@@ -7388,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>24</v>
       </c>
@@ -7408,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>24</v>
       </c>
@@ -7428,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>24</v>
       </c>
@@ -7448,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>24</v>
       </c>
@@ -7468,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>24</v>
       </c>
@@ -7488,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>24</v>
       </c>
@@ -7508,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>24</v>
       </c>
@@ -7528,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>24</v>
       </c>
@@ -7548,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>24</v>
       </c>
@@ -7568,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>24</v>
       </c>
@@ -7588,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>24</v>
       </c>
@@ -7608,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>24</v>
       </c>
@@ -7628,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>24</v>
       </c>
@@ -7648,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>24</v>
       </c>
@@ -7668,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>24</v>
       </c>
@@ -7688,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>24</v>
       </c>
@@ -7708,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>24</v>
       </c>
@@ -7728,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>24</v>
       </c>
@@ -7748,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>24</v>
       </c>
@@ -7768,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>24</v>
       </c>
@@ -7788,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>24</v>
       </c>
@@ -7808,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>24</v>
       </c>
@@ -7828,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>24</v>
       </c>
@@ -7848,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>24</v>
       </c>
@@ -7868,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>24</v>
       </c>
@@ -7888,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>24</v>
       </c>
@@ -7908,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>24</v>
       </c>
@@ -7928,7 +8114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>24</v>
       </c>
@@ -7948,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>24</v>
       </c>
@@ -7968,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>24</v>
       </c>
@@ -7988,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>24</v>
       </c>
@@ -8008,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>24</v>
       </c>
@@ -8028,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>24</v>
       </c>
@@ -8048,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>24</v>
       </c>
@@ -8068,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>24</v>
       </c>
@@ -8088,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>24</v>
       </c>
@@ -8108,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>24</v>
       </c>
@@ -8128,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>24</v>
       </c>
@@ -8148,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>24</v>
       </c>
@@ -8168,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>24</v>
       </c>
@@ -8188,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>24</v>
       </c>
@@ -8208,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>24</v>
       </c>
@@ -8228,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>24</v>
       </c>
@@ -8248,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>24</v>
       </c>
@@ -8268,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>24</v>
       </c>
@@ -8288,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>24</v>
       </c>
@@ -8308,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>24</v>
       </c>
@@ -8328,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>24</v>
       </c>
@@ -8348,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>24</v>
       </c>
@@ -8368,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>24</v>
       </c>
@@ -8388,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>24</v>
       </c>
@@ -8408,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>24</v>
       </c>
@@ -8428,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>24</v>
       </c>
@@ -8448,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>24</v>
       </c>
@@ -8468,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>24</v>
       </c>
@@ -8488,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>24</v>
       </c>
@@ -8508,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>24</v>
       </c>
@@ -8528,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>24</v>
       </c>
@@ -8548,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>24</v>
       </c>
@@ -8568,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>24</v>
       </c>
@@ -8588,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>24</v>
       </c>
@@ -8608,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>24</v>
       </c>
@@ -8628,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>24</v>
       </c>
@@ -8648,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>24</v>
       </c>
@@ -8668,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>24</v>
       </c>
@@ -8688,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>24</v>
       </c>
@@ -8708,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>26</v>
       </c>
@@ -8728,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>26</v>
       </c>
@@ -8748,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>26</v>
       </c>
@@ -8768,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>26</v>
       </c>
@@ -8788,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>26</v>
       </c>
@@ -8808,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>26</v>
       </c>
@@ -8828,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>26</v>
       </c>
@@ -8848,7 +9034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>26</v>
       </c>
@@ -8868,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>26</v>
       </c>
@@ -8888,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>26</v>
       </c>
@@ -8908,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>26</v>
       </c>
@@ -8928,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>26</v>
       </c>
@@ -8948,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>26</v>
       </c>
@@ -8968,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>26</v>
       </c>
@@ -8988,7 +9174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>26</v>
       </c>
@@ -9008,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>26</v>
       </c>
@@ -9028,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>26</v>
       </c>
@@ -9048,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>26</v>
       </c>
@@ -9068,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>26</v>
       </c>
@@ -9088,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>26</v>
       </c>
@@ -9108,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>26</v>
       </c>
@@ -9128,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>26</v>
       </c>
@@ -9148,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>26</v>
       </c>
@@ -9168,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>26</v>
       </c>
@@ -9188,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>26</v>
       </c>
@@ -9208,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>26</v>
       </c>
@@ -9228,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>26</v>
       </c>
@@ -9248,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>26</v>
       </c>
@@ -9268,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>26</v>
       </c>
@@ -9288,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>26</v>
       </c>
@@ -9308,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>26</v>
       </c>
@@ -9328,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>26</v>
       </c>
@@ -9348,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>26</v>
       </c>
@@ -9368,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>26</v>
       </c>
@@ -9388,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>26</v>
       </c>
@@ -9408,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>26</v>
       </c>
@@ -9428,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>26</v>
       </c>
@@ -9448,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>26</v>
       </c>
@@ -9468,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>26</v>
       </c>
@@ -9488,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>26</v>
       </c>
@@ -9508,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>26</v>
       </c>
@@ -9528,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>26</v>
       </c>
@@ -9548,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>26</v>
       </c>
@@ -9568,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>26</v>
       </c>
@@ -9588,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>26</v>
       </c>
@@ -9608,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>26</v>
       </c>
@@ -9628,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>26</v>
       </c>
@@ -9648,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>26</v>
       </c>
@@ -9668,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>26</v>
       </c>
@@ -9688,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>26</v>
       </c>
@@ -9708,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>26</v>
       </c>
@@ -9728,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>26</v>
       </c>
@@ -9748,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>26</v>
       </c>
@@ -9768,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>26</v>
       </c>
@@ -9788,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>26</v>
       </c>
@@ -9808,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>26</v>
       </c>
@@ -9828,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>26</v>
       </c>
@@ -9848,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>26</v>
       </c>
@@ -9868,7 +10054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>26</v>
       </c>
@@ -9888,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>26</v>
       </c>
@@ -9908,7 +10094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>26</v>
       </c>
@@ -9928,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>26</v>
       </c>
@@ -9948,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>26</v>
       </c>
@@ -9968,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>26</v>
       </c>
@@ -9988,7 +10174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>26</v>
       </c>
@@ -10008,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>26</v>
       </c>
@@ -10028,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>26</v>
       </c>
@@ -10048,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>26</v>
       </c>
@@ -10068,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>26</v>
       </c>
@@ -10088,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>26</v>
       </c>
@@ -10108,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>30</v>
       </c>
@@ -10128,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>30</v>
       </c>
@@ -10148,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>30</v>
       </c>
@@ -10168,7 +10354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>30</v>
       </c>
@@ -10188,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>30</v>
       </c>
@@ -10208,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>30</v>
       </c>
@@ -10228,7 +10414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>30</v>
       </c>
@@ -10248,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>30</v>
       </c>
@@ -10268,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>30</v>
       </c>
@@ -10288,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>30</v>
       </c>
@@ -10308,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>30</v>
       </c>
@@ -10328,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>30</v>
       </c>
@@ -10348,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>30</v>
       </c>
@@ -10368,7 +10554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>30</v>
       </c>
@@ -10388,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>30</v>
       </c>
@@ -10408,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>30</v>
       </c>
@@ -10428,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>30</v>
       </c>
@@ -10448,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>30</v>
       </c>
@@ -10468,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>30</v>
       </c>
@@ -10488,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>30</v>
       </c>
@@ -10508,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>30</v>
       </c>
@@ -10528,7 +10714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>30</v>
       </c>
@@ -10548,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>30</v>
       </c>
@@ -10568,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>30</v>
       </c>
@@ -10588,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>30</v>
       </c>
@@ -10608,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>30</v>
       </c>
@@ -10628,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>30</v>
       </c>
@@ -10648,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>30</v>
       </c>
@@ -10668,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>30</v>
       </c>
@@ -10688,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:6">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>30</v>
       </c>
@@ -10708,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:6">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>30</v>
       </c>
@@ -10728,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:6">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>30</v>
       </c>
@@ -10748,7 +10934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:6">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>30</v>
       </c>
@@ -10768,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:6">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>30</v>
       </c>
@@ -10788,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:6">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>30</v>
       </c>
@@ -10808,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:6">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>32</v>
       </c>
@@ -10828,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:6">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>32</v>
       </c>
@@ -10848,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:6">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>32</v>
       </c>
@@ -10868,7 +11054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:6">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>32</v>
       </c>
@@ -10888,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:6">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>32</v>
       </c>
@@ -10908,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:6">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>32</v>
       </c>
@@ -10928,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:6">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>32</v>
       </c>
@@ -10948,7 +11134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:6">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>32</v>
       </c>
@@ -10968,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>32</v>
       </c>
@@ -10988,7 +11174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>32</v>
       </c>
@@ -11008,7 +11194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>32</v>
       </c>
@@ -11028,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>32</v>
       </c>
@@ -11048,7 +11234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>32</v>
       </c>
@@ -11068,7 +11254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>32</v>
       </c>
@@ -11088,7 +11274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>32</v>
       </c>
@@ -11108,7 +11294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>35</v>
       </c>
@@ -11128,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>35</v>
       </c>
@@ -11148,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>35</v>
       </c>
@@ -11168,7 +11354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>35</v>
       </c>
@@ -11188,7 +11374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>35</v>
       </c>
@@ -11208,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>37</v>
       </c>
@@ -11228,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>24</v>
       </c>
@@ -11251,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>24</v>
       </c>
@@ -11274,7 +11460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>24</v>
       </c>
@@ -11297,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>24</v>
       </c>
@@ -11320,7 +11506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>24</v>
       </c>
@@ -11343,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>24</v>
       </c>
@@ -11366,7 +11552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>24</v>
       </c>
@@ -11389,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>24</v>
       </c>
@@ -11412,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>24</v>
       </c>
@@ -11435,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>24</v>
       </c>
@@ -11458,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>24</v>
       </c>
@@ -11481,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>24</v>
       </c>
@@ -11504,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>24</v>
       </c>
@@ -11527,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>24</v>
       </c>
@@ -11550,7 +11736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>24</v>
       </c>
@@ -11573,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>24</v>
       </c>
@@ -11596,7 +11782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>24</v>
       </c>
@@ -11619,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>24</v>
       </c>
@@ -11642,7 +11828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>24</v>
       </c>
@@ -11665,7 +11851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>24</v>
       </c>
@@ -11688,7 +11874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>24</v>
       </c>
@@ -11711,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>24</v>
       </c>
@@ -11734,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>24</v>
       </c>
@@ -11757,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>24</v>
       </c>
@@ -11780,7 +11966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>24</v>
       </c>
@@ -11803,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>24</v>
       </c>
@@ -11826,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>24</v>
       </c>
@@ -11849,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>24</v>
       </c>
@@ -11872,7 +12058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>24</v>
       </c>
@@ -11895,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>24</v>
       </c>
@@ -11918,7 +12104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>24</v>
       </c>
@@ -11941,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>24</v>
       </c>
@@ -11964,7 +12150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>24</v>
       </c>
@@ -11987,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>24</v>
       </c>
@@ -12010,7 +12196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>24</v>
       </c>
@@ -12033,7 +12219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>24</v>
       </c>
@@ -12056,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>24</v>
       </c>
@@ -12079,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>24</v>
       </c>
@@ -12102,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>24</v>
       </c>
@@ -12125,7 +12311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>24</v>
       </c>
@@ -12148,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>24</v>
       </c>
@@ -12171,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>24</v>
       </c>
@@ -12194,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>24</v>
       </c>
@@ -12217,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>24</v>
       </c>
@@ -12240,7 +12426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>24</v>
       </c>
@@ -12263,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>24</v>
       </c>
@@ -12286,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>24</v>
       </c>
@@ -12309,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>24</v>
       </c>
@@ -12332,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>24</v>
       </c>
@@ -12355,7 +12541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>24</v>
       </c>
@@ -12378,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>24</v>
       </c>
@@ -12401,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>24</v>
       </c>
@@ -12424,7 +12610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:7">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>24</v>
       </c>
@@ -12447,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>24</v>
       </c>
@@ -12470,7 +12656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:7">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>24</v>
       </c>
@@ -12493,7 +12679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>24</v>
       </c>
@@ -12516,7 +12702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:7">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>24</v>
       </c>
@@ -12539,7 +12725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:7">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>24</v>
       </c>
@@ -12562,7 +12748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:7">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>24</v>
       </c>
@@ -12585,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:7">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>24</v>
       </c>
@@ -12608,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:7">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>24</v>
       </c>
@@ -12631,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:7">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>24</v>
       </c>
@@ -12654,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:7">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>24</v>
       </c>
@@ -12677,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:7">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>24</v>
       </c>
@@ -12700,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:7">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>24</v>
       </c>
@@ -12723,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:7">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>24</v>
       </c>
@@ -12746,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:7">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>24</v>
       </c>
@@ -12769,7 +12955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:7">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>24</v>
       </c>
@@ -12792,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:7">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>24</v>
       </c>
@@ -12815,7 +13001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:7">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>24</v>
       </c>
@@ -12838,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:7">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>24</v>
       </c>
@@ -12861,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:7">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>24</v>
       </c>
@@ -12884,7 +13070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:7">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>24</v>
       </c>
@@ -12907,7 +13093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:7">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>24</v>
       </c>
@@ -12930,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:7">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>24</v>
       </c>
@@ -12953,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:7">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>24</v>
       </c>
@@ -12976,7 +13162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:7">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>24</v>
       </c>
@@ -12999,7 +13185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:7">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>24</v>
       </c>
@@ -13022,7 +13208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:7">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>24</v>
       </c>
@@ -13045,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:7">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>24</v>
       </c>
@@ -13068,7 +13254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:7">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>24</v>
       </c>
@@ -13091,7 +13277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:7">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>24</v>
       </c>
@@ -13114,7 +13300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:7">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>24</v>
       </c>
@@ -13137,7 +13323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:7">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>24</v>
       </c>
@@ -13160,7 +13346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:7">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>24</v>
       </c>
@@ -13183,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:7">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>24</v>
       </c>
@@ -13206,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:7">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>24</v>
       </c>
@@ -13229,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:7">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>24</v>
       </c>
@@ -13252,7 +13438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:7">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>24</v>
       </c>
@@ -13275,7 +13461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:7">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>24</v>
       </c>
@@ -13298,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:7">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>24</v>
       </c>
@@ -13321,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:7">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>24</v>
       </c>
@@ -13344,7 +13530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:7">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>24</v>
       </c>
@@ -13367,7 +13553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:7">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>24</v>
       </c>
@@ -13390,7 +13576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:7">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>24</v>
       </c>
@@ -13413,7 +13599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:7">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>24</v>
       </c>
@@ -13436,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:7">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>24</v>
       </c>
@@ -13459,7 +13645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:7">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>24</v>
       </c>
@@ -13482,7 +13668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:7">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>24</v>
       </c>
@@ -13505,7 +13691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:7">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>24</v>
       </c>
@@ -13528,7 +13714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:7">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>24</v>
       </c>
@@ -13551,7 +13737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:7">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>24</v>
       </c>
@@ -13574,7 +13760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:7">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>24</v>
       </c>
@@ -13597,7 +13783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:7">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>24</v>
       </c>
@@ -13620,7 +13806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:7">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>24</v>
       </c>
@@ -13643,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:7">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>24</v>
       </c>
@@ -13666,7 +13852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:7">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>24</v>
       </c>
@@ -13689,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:7">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>24</v>
       </c>
@@ -13712,7 +13898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:7">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>24</v>
       </c>
@@ -13735,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:7">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>24</v>
       </c>
@@ -13758,7 +13944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:7">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>24</v>
       </c>
@@ -13781,7 +13967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:7">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>24</v>
       </c>
@@ -13804,7 +13990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:7">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>24</v>
       </c>
@@ -13827,7 +14013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:7">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>24</v>
       </c>
@@ -13850,7 +14036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:7">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>24</v>
       </c>
@@ -13873,7 +14059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:7">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>24</v>
       </c>
@@ -13896,7 +14082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:7">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>24</v>
       </c>
@@ -13919,7 +14105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:7">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>24</v>
       </c>
@@ -13942,7 +14128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:7">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>24</v>
       </c>
@@ -13965,7 +14151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:7">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>24</v>
       </c>
@@ -13988,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:7">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>24</v>
       </c>
@@ -14011,7 +14197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:7">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>24</v>
       </c>
@@ -14034,7 +14220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:7">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>24</v>
       </c>
@@ -14057,7 +14243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:7">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>24</v>
       </c>
@@ -14080,7 +14266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:7">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>24</v>
       </c>
@@ -14103,7 +14289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:7">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>24</v>
       </c>
@@ -14126,7 +14312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:7">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>26</v>
       </c>
@@ -14149,7 +14335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:7">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>26</v>
       </c>
@@ -14172,7 +14358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:7">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>26</v>
       </c>
@@ -14195,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:7">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>26</v>
       </c>
@@ -14218,7 +14404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:7">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>26</v>
       </c>
@@ -14241,7 +14427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:7">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>26</v>
       </c>
@@ -14264,7 +14450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:7">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>26</v>
       </c>
@@ -14287,7 +14473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:7">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>26</v>
       </c>
@@ -14310,7 +14496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:7">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>26</v>
       </c>
@@ -14333,7 +14519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:7">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>26</v>
       </c>
@@ -14356,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:7">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>26</v>
       </c>
@@ -14379,7 +14565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:7">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>26</v>
       </c>
@@ -14402,7 +14588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:7">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>26</v>
       </c>
@@ -14425,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:7">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>26</v>
       </c>
@@ -14448,7 +14634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:7">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>26</v>
       </c>
@@ -14471,7 +14657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:7">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>26</v>
       </c>
@@ -14494,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:7">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>26</v>
       </c>
@@ -14517,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:7">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>26</v>
       </c>
@@ -14540,7 +14726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:7">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>26</v>
       </c>
@@ -14563,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:7">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>26</v>
       </c>
@@ -14586,7 +14772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:7">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>26</v>
       </c>
@@ -14609,7 +14795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:7">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>26</v>
       </c>
@@ -14632,7 +14818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:7">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>26</v>
       </c>
@@ -14655,7 +14841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:7">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>26</v>
       </c>
@@ -14678,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:7">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>26</v>
       </c>
@@ -14701,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:7">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>26</v>
       </c>
@@ -14724,7 +14910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:7">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>26</v>
       </c>
@@ -14747,7 +14933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:7">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>26</v>
       </c>
@@ -14770,7 +14956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:7">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>26</v>
       </c>
@@ -14793,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:7">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>26</v>
       </c>
@@ -14816,7 +15002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:7">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>26</v>
       </c>
@@ -14839,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:7">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>26</v>
       </c>
@@ -14862,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:7">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>26</v>
       </c>
@@ -14885,7 +15071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:7">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>26</v>
       </c>
@@ -14908,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:7">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>26</v>
       </c>
@@ -14931,7 +15117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:7">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>26</v>
       </c>
@@ -14954,7 +15140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:7">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>26</v>
       </c>
@@ -14977,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:7">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>26</v>
       </c>
@@ -15000,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:7">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>26</v>
       </c>
@@ -15023,7 +15209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:7">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>26</v>
       </c>
@@ -15046,7 +15232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:7">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>26</v>
       </c>
@@ -15069,7 +15255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:7">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>26</v>
       </c>
@@ -15092,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:7">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>26</v>
       </c>
@@ -15115,7 +15301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:7">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>26</v>
       </c>
@@ -15138,7 +15324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:7">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>26</v>
       </c>
@@ -15161,7 +15347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:7">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>26</v>
       </c>
@@ -15184,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:7">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>26</v>
       </c>
@@ -15207,7 +15393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:7">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>26</v>
       </c>
@@ -15230,7 +15416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:7">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>26</v>
       </c>
@@ -15253,7 +15439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:7">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>26</v>
       </c>
@@ -15276,7 +15462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:7">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>26</v>
       </c>
@@ -15299,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:7">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>26</v>
       </c>
@@ -15322,7 +15508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:7">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>26</v>
       </c>
@@ -15345,7 +15531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:7">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>26</v>
       </c>
@@ -15368,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:7">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>26</v>
       </c>
@@ -15391,7 +15577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:7">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>26</v>
       </c>
@@ -15414,7 +15600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:7">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>30</v>
       </c>
@@ -15437,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:7">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>30</v>
       </c>
@@ -15460,7 +15646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:7">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>30</v>
       </c>
@@ -15483,7 +15669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:7">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>30</v>
       </c>
@@ -15506,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:7">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>30</v>
       </c>
@@ -15529,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:7">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>30</v>
       </c>
@@ -15552,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:7">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>30</v>
       </c>
@@ -15575,7 +15761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:7">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>30</v>
       </c>
@@ -15598,7 +15784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:7">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>30</v>
       </c>
@@ -15621,7 +15807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:7">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>30</v>
       </c>
@@ -15644,7 +15830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:7">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>30</v>
       </c>
@@ -15667,7 +15853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:7">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>30</v>
       </c>
@@ -15690,7 +15876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:7">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>30</v>
       </c>
@@ -15713,7 +15899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>30</v>
       </c>
@@ -15736,7 +15922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>30</v>
       </c>
@@ -15759,7 +15945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>30</v>
       </c>
@@ -15782,7 +15968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>30</v>
       </c>
@@ -15805,7 +15991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>30</v>
       </c>
@@ -15828,7 +16014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>30</v>
       </c>
@@ -15851,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>30</v>
       </c>
@@ -15874,7 +16060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>30</v>
       </c>
@@ -15897,7 +16083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>32</v>
       </c>
@@ -15920,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>32</v>
       </c>
@@ -15943,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>32</v>
       </c>
@@ -15966,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>32</v>
       </c>
@@ -15989,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>32</v>
       </c>
@@ -16012,7 +16198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>32</v>
       </c>
@@ -16035,7 +16221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>35</v>
       </c>
@@ -16058,7 +16244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>24</v>
       </c>
@@ -16084,7 +16270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>24</v>
       </c>
@@ -16110,7 +16296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>24</v>
       </c>
@@ -16136,7 +16322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:8">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>24</v>
       </c>
@@ -16162,7 +16348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>24</v>
       </c>
@@ -16188,7 +16374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>24</v>
       </c>
@@ -16214,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>24</v>
       </c>
@@ -16240,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>24</v>
       </c>
@@ -16266,7 +16452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>24</v>
       </c>
@@ -16292,7 +16478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>24</v>
       </c>
@@ -16318,7 +16504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>24</v>
       </c>
@@ -16344,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>24</v>
       </c>
@@ -16370,7 +16556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>24</v>
       </c>
@@ -16396,7 +16582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>24</v>
       </c>
@@ -16422,7 +16608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:8">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>24</v>
       </c>
@@ -16448,7 +16634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:8">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>24</v>
       </c>
@@ -16474,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:8">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>24</v>
       </c>
@@ -16500,7 +16686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>24</v>
       </c>
@@ -16526,7 +16712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:8">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>24</v>
       </c>
@@ -16552,7 +16738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>24</v>
       </c>
@@ -16578,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>24</v>
       </c>
@@ -16604,7 +16790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>24</v>
       </c>
@@ -16630,7 +16816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:8">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>24</v>
       </c>
@@ -16656,7 +16842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>24</v>
       </c>
@@ -16682,7 +16868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>24</v>
       </c>
@@ -16708,7 +16894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>24</v>
       </c>
@@ -16734,7 +16920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>24</v>
       </c>
@@ -16760,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>24</v>
       </c>
@@ -16786,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>24</v>
       </c>
@@ -16812,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>24</v>
       </c>
@@ -16838,7 +17024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>24</v>
       </c>
@@ -16864,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>24</v>
       </c>
@@ -16890,7 +17076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>24</v>
       </c>
@@ -16916,7 +17102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:8">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>24</v>
       </c>
@@ -16942,7 +17128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:8">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>24</v>
       </c>
@@ -16968,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:8">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>24</v>
       </c>
@@ -16994,7 +17180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:8">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>24</v>
       </c>
@@ -17020,7 +17206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:8">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>24</v>
       </c>
@@ -17046,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:8">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>24</v>
       </c>
@@ -17072,7 +17258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:8">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>24</v>
       </c>
@@ -17098,7 +17284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:8">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>24</v>
       </c>
@@ -17124,7 +17310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:8">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>24</v>
       </c>
@@ -17150,7 +17336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:8">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>24</v>
       </c>
@@ -17176,7 +17362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:8">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>24</v>
       </c>
@@ -17202,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:8">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>24</v>
       </c>
@@ -17228,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:8">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>24</v>
       </c>
@@ -17254,7 +17440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:8">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>24</v>
       </c>
@@ -17280,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:8">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>24</v>
       </c>
@@ -17306,7 +17492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:8">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>24</v>
       </c>
@@ -17332,7 +17518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:8">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>24</v>
       </c>
@@ -17358,7 +17544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:8">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>24</v>
       </c>
@@ -17384,7 +17570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:8">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>24</v>
       </c>
@@ -17410,7 +17596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:8">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>24</v>
       </c>
@@ -17436,7 +17622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:8">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>24</v>
       </c>
@@ -17462,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:8">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>24</v>
       </c>
@@ -17488,7 +17674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:8">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>24</v>
       </c>
@@ -17514,7 +17700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:8">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>24</v>
       </c>
@@ -17540,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:8">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>24</v>
       </c>
@@ -17566,7 +17752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:8">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>24</v>
       </c>
@@ -17592,7 +17778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:8">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>24</v>
       </c>
@@ -17618,7 +17804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:8">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>24</v>
       </c>
@@ -17644,7 +17830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:8">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>24</v>
       </c>
@@ -17670,7 +17856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:8">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>24</v>
       </c>
@@ -17696,7 +17882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:8">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>24</v>
       </c>
@@ -17722,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:8">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>24</v>
       </c>
@@ -17748,7 +17934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:8">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>24</v>
       </c>
@@ -17774,7 +17960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:8">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>24</v>
       </c>
@@ -17800,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:8">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>24</v>
       </c>
@@ -17826,7 +18012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:8">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>24</v>
       </c>
@@ -17852,7 +18038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:8">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>24</v>
       </c>
@@ -17878,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:8">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>24</v>
       </c>
@@ -17904,7 +18090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:8">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>24</v>
       </c>
@@ -17930,7 +18116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:8">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>24</v>
       </c>
@@ -17956,7 +18142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:8">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>24</v>
       </c>
@@ -17982,7 +18168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:8">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>24</v>
       </c>
@@ -18008,7 +18194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:8">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>24</v>
       </c>
@@ -18034,7 +18220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:8">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>24</v>
       </c>
@@ -18060,7 +18246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:8">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>24</v>
       </c>
@@ -18086,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:8">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>24</v>
       </c>
@@ -18112,7 +18298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:8">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>24</v>
       </c>
@@ -18138,7 +18324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:8">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>24</v>
       </c>
@@ -18164,7 +18350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:8">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>24</v>
       </c>
@@ -18190,7 +18376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:8">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>24</v>
       </c>
@@ -18216,7 +18402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:8">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>24</v>
       </c>
@@ -18242,7 +18428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:8">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>26</v>
       </c>
@@ -18268,7 +18454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:8">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>26</v>
       </c>
@@ -18294,7 +18480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:8">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>26</v>
       </c>
@@ -18320,7 +18506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>26</v>
       </c>
@@ -18346,7 +18532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:8">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>26</v>
       </c>
@@ -18372,7 +18558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:8">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>26</v>
       </c>
@@ -18398,7 +18584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:8">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>26</v>
       </c>
@@ -18424,7 +18610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:8">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>26</v>
       </c>
@@ -18450,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:8">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>26</v>
       </c>
@@ -18476,7 +18662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:8">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>26</v>
       </c>
@@ -18502,7 +18688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:8">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>26</v>
       </c>
@@ -18528,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:8">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>26</v>
       </c>
@@ -18554,7 +18740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:8">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>26</v>
       </c>
@@ -18580,7 +18766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:8">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>26</v>
       </c>
@@ -18606,7 +18792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:8">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>26</v>
       </c>
@@ -18632,7 +18818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:8">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>26</v>
       </c>
@@ -18658,7 +18844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:8">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>26</v>
       </c>
@@ -18684,7 +18870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:8">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>26</v>
       </c>
@@ -18710,7 +18896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:8">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>26</v>
       </c>
@@ -18736,7 +18922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:8">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>26</v>
       </c>
@@ -18762,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:8">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>26</v>
       </c>
@@ -18788,7 +18974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:8">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>26</v>
       </c>
@@ -18814,7 +19000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:8">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>26</v>
       </c>
@@ -18840,7 +19026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:8">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>26</v>
       </c>
@@ -18866,7 +19052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:8">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>26</v>
       </c>
@@ -18892,7 +19078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:8">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>26</v>
       </c>
@@ -18918,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:8">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>26</v>
       </c>
@@ -18944,7 +19130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:8">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>26</v>
       </c>
@@ -18970,7 +19156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:8">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>30</v>
       </c>
@@ -18996,7 +19182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:9">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>30</v>
       </c>
@@ -19022,7 +19208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:9">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>30</v>
       </c>
@@ -19048,7 +19234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:9">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>30</v>
       </c>
@@ -19074,7 +19260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:9">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>30</v>
       </c>
@@ -19100,7 +19286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:9">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>30</v>
       </c>
@@ -19126,7 +19312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:9">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>30</v>
       </c>
@@ -19152,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:9">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>32</v>
       </c>
@@ -19178,7 +19364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:9">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>24</v>
       </c>
@@ -19207,7 +19393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:9">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>24</v>
       </c>
@@ -19236,7 +19422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:9">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>24</v>
       </c>
@@ -19265,7 +19451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:9">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>24</v>
       </c>
@@ -19294,7 +19480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:9">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>24</v>
       </c>
@@ -19323,7 +19509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:9">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>24</v>
       </c>
@@ -19352,7 +19538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:9">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>24</v>
       </c>
@@ -19381,7 +19567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:9">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>24</v>
       </c>
@@ -19410,7 +19596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:9">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>24</v>
       </c>
@@ -19439,7 +19625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:9">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>24</v>
       </c>
@@ -19468,7 +19654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:9">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>24</v>
       </c>
@@ -19497,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:9">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>24</v>
       </c>
@@ -19526,7 +19712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:9">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>24</v>
       </c>
@@ -19555,7 +19741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:9">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>24</v>
       </c>
@@ -19584,7 +19770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:9">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>24</v>
       </c>
@@ -19613,7 +19799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:9">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>24</v>
       </c>
@@ -19642,7 +19828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:9">
+    <row r="984" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>24</v>
       </c>
@@ -19671,7 +19857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:9">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>24</v>
       </c>
@@ -19700,7 +19886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:9">
+    <row r="986" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>24</v>
       </c>
@@ -19729,7 +19915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:9">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>24</v>
       </c>
@@ -19758,7 +19944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:9">
+    <row r="988" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>24</v>
       </c>
@@ -19787,7 +19973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:9">
+    <row r="989" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>24</v>
       </c>
@@ -19816,7 +20002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:9">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>24</v>
       </c>
@@ -19845,7 +20031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:9">
+    <row r="991" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>24</v>
       </c>
@@ -19874,7 +20060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:9">
+    <row r="992" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>24</v>
       </c>
@@ -19903,7 +20089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:9">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>24</v>
       </c>
@@ -19932,7 +20118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:9">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>24</v>
       </c>
@@ -19961,7 +20147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:9">
+    <row r="995" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>24</v>
       </c>
@@ -19990,7 +20176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:9">
+    <row r="996" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>24</v>
       </c>
@@ -20019,7 +20205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:9">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>24</v>
       </c>
@@ -20048,7 +20234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:9">
+    <row r="998" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>24</v>
       </c>
@@ -20077,7 +20263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:9">
+    <row r="999" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>24</v>
       </c>
@@ -20106,7 +20292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:9">
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>24</v>
       </c>
@@ -20135,7 +20321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:9">
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>24</v>
       </c>
@@ -20164,7 +20350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:9">
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>24</v>
       </c>
@@ -20193,7 +20379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:9">
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>24</v>
       </c>
@@ -20222,7 +20408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:9">
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>26</v>
       </c>
@@ -20251,7 +20437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:9">
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>26</v>
       </c>
@@ -20280,7 +20466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:9">
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>26</v>
       </c>
@@ -20309,7 +20495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:9">
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>26</v>
       </c>
@@ -20338,7 +20524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:9">
+    <row r="1008" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>26</v>
       </c>
@@ -20367,7 +20553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:11">
+    <row r="1009" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>26</v>
       </c>
@@ -20396,7 +20582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:11">
+    <row r="1010" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>26</v>
       </c>
@@ -20425,7 +20611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:11">
+    <row r="1011" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>26</v>
       </c>
@@ -20454,7 +20640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="1:11">
+    <row r="1012" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>30</v>
       </c>
@@ -20483,7 +20669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:11">
+    <row r="1013" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>24</v>
       </c>
@@ -20515,7 +20701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:11">
+    <row r="1014" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>24</v>
       </c>
@@ -20547,7 +20733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:11">
+    <row r="1015" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>24</v>
       </c>
@@ -20579,7 +20765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:11">
+    <row r="1016" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>24</v>
       </c>
@@ -20611,7 +20797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:11">
+    <row r="1017" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>24</v>
       </c>
@@ -20643,7 +20829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:11">
+    <row r="1018" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>24</v>
       </c>
@@ -20675,7 +20861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1019" spans="1:11">
+    <row r="1019" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>24</v>
       </c>
@@ -20707,7 +20893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:11">
+    <row r="1020" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>24</v>
       </c>
@@ -20739,7 +20925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:11">
+    <row r="1021" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>24</v>
       </c>
@@ -20771,7 +20957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:11">
+    <row r="1022" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>26</v>
       </c>
@@ -20803,7 +20989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1023" spans="1:11">
+    <row r="1023" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>24</v>
       </c>
